--- a/ocr_output/金工动态点评.xlsx
+++ b/ocr_output/金工动态点评.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="全部数据" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="247">
   <si>
     <t>附件子目录</t>
   </si>
@@ -43,6 +43,18 @@
     <t>Kimi_分析时间</t>
   </si>
   <si>
+    <t>2026-01-30_西南证券_因子情绪观察与基金仓位高频探测</t>
+  </si>
+  <si>
+    <t>2026-02-03_华创证券_量化看市场系列之四：使用“OpenClaw”搭建属于自己的私域_AI_助理</t>
+  </si>
+  <si>
+    <t>2026-02-03_国盛证券_量化点评报告：二月配置建议：关注美元流动性和情绪指标何时修复</t>
+  </si>
+  <si>
+    <t>2026-02-03_太平洋证券_金工ETF点评：宽基ETF本周净流出3890.81亿元，食饮、农林牧渔拥挤变幅较大</t>
+  </si>
+  <si>
     <t>2025-11-27_太平洋证券_金工ETF点评：宽基ETF单日净流出152.82亿元，医药、商贸零售拥挤变幅较大</t>
   </si>
   <si>
@@ -224,6 +236,732 @@
   </si>
   <si>
     <t>2026-02-01_浙商证券_主动量化周报：回调或将带来买入良机</t>
+  </si>
+  <si>
+    <t># 因子情绪观察与基金仓位高频探测
+# 摘要
+#  市场情绪跟踪
+股指期货升贴水情况：截至 2026年 1月 30日，沪深 300、中证 1000、上证 50和中证 500 股指期货处于升水状态（现货价格低于期货价格），沪深 300、中证1000、上证50和中证 500股指期货升水率分别为 $0 . 0 8 \%$ 、 $0 . 3 3 \%$ 、 $0 . 0 6 \%$ 、 $0 . 0 8 \%$ 。
+两融情况：截至 2026年 1月 29日，两融余额为 27304.24亿元，其中融资余额为 27132.92亿元，融券余额为171.31亿元。整体来看，截至2026年 1月 29日，本周融资净买入额为161.45亿元，相较于上周（-83.04亿元）有所上升，本周融券净卖出额为-2.04亿元，相较于上周（2.31亿元）有所下降；分行业来看，本周融资净买入额较高的行业包括有色金属、建筑、电力及公用事业，分别为 134.25亿元、18.57 亿元、17.15 亿元；融券净卖出额较高的行业有有色金属，为 2.36亿元。
+主动权益基金发行情况：本周主动权益基金发行规模总计312.37亿元。主动权益基金近一个月发行规模811.05亿元。
+ 公募基金仓位及行业配置高频探测：截至2026年 1月 30日，全市场主动权益基金平均仓位 $8 2 . 6 7 \%$ ，较于上一周减仓 $1 . 2 1 \%$ 。
+分行业来看，最近一周主动权益基金主要加仓机械、基础化工、中游制造综合板块等行业，仓位分别上升 $0 . 2 6 \%$ 、 $0 . 2 3 \%$ 、 $0 . 2 5 \%$ ；最近一周主动权益基金主要减仓医药、通信、食品饮料等行业，仓位分别下降 $0 . 5 3 \%$ 、 $0 . 3 1 \%$ 、 $0 . 1 7 \%$ 。
+从最近一个月（四周）主动权益基金仓位变动情况来看，基础化工、机械、中游制造综合板块等行业仓位明显增加，分别加仓 $0 . 8 3 \%$ 、 $0 . 4 7 \%$ 、 $0 . 4 3 \%$ ；计算机、家电、通信行业仓位明显减少，减仓 $1 . 1 9 \%$ 、 $0 . 5 7 \%$ 、 $0 . 5 6 \%$ 。
+相较于本周指数表现来看，国防军工，综合金融，汽车周内分别下跌 $7 . 6 0 \%$ ， $6 . 1 6 \%$ 和 $5 . 1 2 \%$ ，但分别加仓 $0 . 1 1 \%$ ， $0 . 1 4 \%$ 和 $0 . 1 0 \%$ ；通信周内上涨 $4 . 7 7 \%$ ，但整体减仓 $0 . 3 1 \%$ ；石油石化和煤炭周内涨幅明显，分别为 $6 . 9 2 \%$ 和 $3 . 9 8 \%$ ，但分别仅加仓 $0 . 1 1 \%$ 和 $0 . 0 1 \%$ 。
+ 因子表现跟踪：从 IC表现来看，近一周 1/PB、PS、股息率等因子表现较好，IC值分别为 $2 2 . 7 7 \%$ 、 $- 2 1 . 7 6 \%$ 、 $2 0 . 5 0 \%$ ；ROE 环比、净利润同比、归母净利润同比等因子表现较差，IC分别为 $1 . 0 4 \%$ 、 $2 . 1 4 \%$ 和 $2 . 2 6 \%$ 。近一个月归母净利润/负债、流动比率、速动比率表现较好，IC为 $8 . 9 8 \%$ 、 $7 . 9 9 \%$ 、 $7 . 6 0 \%$ ；reverse_120_5、ROE 环比等因子表现较差。近一年 reverse_20、reverse_120_5、对数市值等因子表现较好，IC 分别为 $- 5 . 8 3 \%$ 、 $4 . 7 8 \%$ 、 $- 3 . 9 5 \%$ ；ROE 环比、EPS 同比等因子表现较差。
+ 风险提示：本报告结论完全基于公开的历史数据进行统计、测算，文中部分数据有一定滞后性，同时存在第三方数据提供不准确风险，且不构成任何投资建议；投资者需充分认知自身风险偏好以及风险承受能力，市场有风险，投资需谨慎。
+# 西南证券研究院
+[Table_Author]分析师：郑琳琳
+执业证号：S1250522110001
+邮箱：zhengll@swsc.com.cn
+分析师：祝晨宇
+执业证号：S1250525100004
+邮箱：zhcy@swsc.com.cn
+# 相关研究
+1. 多重周期嵌套下关注多主线与风格轮动再平衡——2026年度资产与基金组合配置策略 (2026-01-09)  
+2. 国泰量化策略收益 A：打造“宏观研判+多策略”主动量化框架(2026-01-05)  
+3. ESG投资现状及量化多因子策略跟踪 (2025-12-31)   
+4. 内需估值洼地盈利稳健，逆向布局低估值成长——中庚价值先锋产品投资价值分析 (2025-12-31)  
+5. 强化学习驱动下的解耦时序对比选股模型 (2025-12-25)  
+6. 海富通中证 2000增强策略 ETF：交易与持有成本双低，增强策略护航超额收益 (2025-12-03)  
+7. 中欧基金刘勇：锚定绝对收益，打造低波动财富增长曲线 (2025-09-26)  
+8. 汇添富基金杨瑨：坚守质地成长，动态 平衡估值趋势 (2025-09-26)   
+9. 国泰基金智健：以估值成长再平衡践行稳健进攻 (2025-09-25)  
+10.国联安添利增长：利率债打底筑基，权益转债两翼发力 (2025-09-14)
+# 目 录
+# 1 市场情绪跟踪....
+1.1 股指期货升贴水...   
+1.2 两融情况...   
+1.3 公募基金相关指标....
+# 2 公募基金仓位及行业配置高频探测............ ........4
+# 3 因子表现跟踪 .....
+# 4 风 险 提示 ..........
+# 图 目 录
+图 1：沪深 300 股指期货升贴水及收盘价.  
+图 2：中证 1000 股指期货升贴水及收盘价..  
+图 3：上证 50股指期货升贴水及收盘价....  
+图 4：中证 500 股指期货升贴水及收盘价....  
+图 5：融资余额与融券余额（亿元）  
+图 6：两融余额与交易占比情况（右轴：两融交易额占全 A成交额比例）  
+图 7：主动权益基金发行规模(右轴：万得全 A收盘价)...  
+图 8：主动权益基金仓位变化..  
+图 9：2023年初至今各板块仓位变化..  
+图 10：2023年初至今部分行业仓位变化...
+# 表 目 录
+表 1：本周股指期货升贴水情况（%）  
+表 2：分行业融资净买入与融券净卖出情况（中信一级分类）  
+表 3：主动权益基金仓位情况.. 4  
+表 4：主动权益基金行业仓位探测情况. .6  
+表 5：因子近期表现情况..  
+表 6：因子近期多头收益表现. 8
+# 1 市场情绪跟踪
+# 1.1 股指期货升贴水
+沪深 300、中证 1000、上证 50和中证 500股指期货处于升水状态（现货价格低于期货价格），沪深 300、中证 1000、上证 50和中证 500股指期货升水率分别为 $0 . 0 8 \%$ 、 $0 . 3 3 \%$ 、$0 . 0 6 \%$ 、 $0 . 0 8 \%$ 。
+图 1：沪深 300 股指期货升贴水及收盘价  
+![](images/31201afaedc0c93f428a97f4e914e6c18524618271036d51c0325b68862925c4.jpg)  
+数据来源：万得，西南证券整理，数据截至2026/01/30
+图 2：中证 1000 股指期货升贴水及收盘价  
+![](images/0a7fb1eaa90e02893918c7f1d195775233e1ac1e1a414ea72e1d3b729f820d55.jpg)  
+数据来源：万得，西南证券整理，数据截至2026/01/30
+图 3：上证 50股指期货升贴水及收盘价  
+![](images/04868472a28dc4dfd10150f259fba52626a016b47ef2521eafe72f9244643c72.jpg)  
+数据来源：万得，西南证券整理，数据截至2026/01/30
+图 4：中证 500 股指期货升贴水及收盘价  
+![](images/4698e033062e6295179e550c16e35bc928d15f8ec954da2494a2ac18f743871b.jpg)  
+数据来源：万得，西南证券整理，数据截至2026/01/30
+本周主要股指期货基差整体回升，沪深 300、上证 50、中证 500及中证 1000均实现周均升水，升水率分别为 $0 . 2 1 \%$ 、 $0 . 2 0 \%$ 、 $0 . 0 6 \%$ 和 $0 . 0 5 \%$ 。
+表 1：本周股指期货升贴水情况（%）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;日期&lt;/td&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;中证1000&lt;/td&gt;&lt;td&gt;上证50&lt;/td&gt;&lt;td&gt;中证500&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-26&lt;/td&gt;&lt;td&gt;0.15&lt;/td&gt;&lt;td&gt;-0.46&lt;/td&gt;&lt;td&gt;0.12&lt;/td&gt;&lt;td&gt;-0.25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-27&lt;/td&gt;&lt;td&gt;0.19&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;td&gt;0.26&lt;/td&gt;&lt;td&gt;0.06&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-28&lt;/td&gt;&lt;td&gt;0.21&lt;/td&gt;&lt;td&gt;0.09&lt;/td&gt;&lt;td&gt;0.16&lt;/td&gt;&lt;td&gt;0.26&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-29&lt;/td&gt;&lt;td&gt;0.44&lt;/td&gt;&lt;td&gt;0.23&lt;/td&gt;&lt;td&gt;0.43&lt;/td&gt;&lt;td&gt;0.16&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-30&lt;/td&gt;&lt;td&gt;0.08&lt;/td&gt;&lt;td&gt;0.33&lt;/td&gt;&lt;td&gt;0.06&lt;/td&gt;&lt;td&gt;0.08&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：万得，西南证券整理，数据截至2026/01/30
+# 1.2 两融情况
+融资融券是指投资者向证券公司提供担保品，借入资金买入上市证券（融资）或者借入上市证券并卖出（融券）的行为。截至 2026年 1月 29日，两融余额为 27304.24亿元，其中融资余额为27132.92亿元，融券余额为171.31亿元。
+图 5：融资余额与融券余额（亿元）  
+![](images/14cd44fe52fb7db8a72710f6a5b34c831d167928dccc4432380341b8688c48b0.jpg)  
+数据来源：万得，西南证券整理，数据截至2026/01/29
+近一年来两融余额占全 A 流通市值比例均值为 $2 . 4 3 \%$ ，两融成交额占全 A 成交额比例均值为 $1 0 . 0 8 \%$ ；截至 2026年 1月 29日两融余额占全 A 流通市值比例为 $2 . 6 4 \%$ ，两融交易额占全 A 成交额比例 $9 . 6 7 \%$ 。
+图 6：两融余额与交易占比情况（右轴：两融交易额占全 A成交额比例）  
+![](images/ccb763a6b45db1219434b9914afa5257814e1181ec1fe75c3b540a0de04e8681.jpg)  
+数据来源：万得，西南证券整理，数据截至2026/01/29
+整体来看，截至2026年1月29日，本周融资净买入额为161.45亿元，相较于上周（-83.04亿元）有所上升，本周融券净卖出额为-2.04 亿元，相较于上周（2.31 亿元）有所下降；分行业来看，本周融资净买入额较高的行业包括有色金属、建筑、电力及公用事业，分别为134.25亿元、18.57亿元、17.15亿元；融券净卖出额较高的行业有有色金属，为 2.36亿元。
+表 2：分行业融资净买入与融券净卖出情况（中信一级分类）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;行业&lt;/td&gt;&lt;td&gt;融资净买入额(本周)&lt;/td&gt;&lt;td&gt;融券净卖出额(本周)&lt;/td&gt;&lt;td&gt;融资买入额占成交额(%) (本周)&lt;/td&gt;&lt;td&gt;融券卖出额占成交额(%) (本周)&lt;/td&gt;&lt;td&gt;融资净买入额(上周)&lt;/td&gt;&lt;td&gt;融券净卖出额(上周)&lt;/td&gt;&lt;td&gt;融资买入额占成交额(%) (上周)&lt;/td&gt;&lt;td&gt;融券卖出额占成交额(%) (上周)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;-32.97&lt;/td&gt;&lt;td&gt;-1.20&lt;/td&gt;&lt;td&gt;7.78&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-58.01&lt;/td&gt;&lt;td&gt;-0.07&lt;/td&gt;&lt;td&gt;10.27&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;-17.65&lt;/td&gt;&lt;td&gt;-0.61&lt;/td&gt;&lt;td&gt;7.63&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-28.90&lt;/td&gt;&lt;td&gt;-0.07&lt;/td&gt;&lt;td&gt;9.24&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;非银行金融&lt;/td&gt;&lt;td&gt;12.83&lt;/td&gt;&lt;td&gt;0.24&lt;/td&gt;&lt;td&gt;9.34&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;td&gt;23.39&lt;/td&gt;&lt;td&gt;-0.25&lt;/td&gt;&lt;td&gt;12.13&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力设备及新能源&lt;/td&gt;&lt;td&gt;-1.08&lt;/td&gt;&lt;td&gt;-0.87&lt;/td&gt;&lt;td&gt;6.92&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-1.22&lt;/td&gt;&lt;td&gt;-0.29&lt;/td&gt;&lt;td&gt;8.50&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医药&lt;/td&gt;&lt;td&gt;16.26&lt;/td&gt;&lt;td&gt;0.11&lt;/td&gt;&lt;td&gt;6.96&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-23.80&lt;/td&gt;&lt;td&gt;-0.24&lt;/td&gt;&lt;td&gt;8.11&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机械&lt;/td&gt;&lt;td&gt;-0.91&lt;/td&gt;&lt;td&gt;-0.25&lt;/td&gt;&lt;td&gt;6.46&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-10.32&lt;/td&gt;&lt;td&gt;-0.03&lt;/td&gt;&lt;td&gt;8.06&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;134.25&lt;/td&gt;&lt;td&gt;2.36&lt;/td&gt;&lt;td&gt;8.01&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;td&gt;54.86&lt;/td&gt;&lt;td&gt;0.55&lt;/td&gt;&lt;td&gt;9.68&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;12.00&lt;/td&gt;&lt;td&gt;-0.19&lt;/td&gt;&lt;td&gt;6.52&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;-2.15&lt;/td&gt;&lt;td&gt;0.08&lt;/td&gt;&lt;td&gt;7.96&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;8.65&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;8.41&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-6.61&lt;/td&gt;&lt;td&gt;0.13&lt;/td&gt;&lt;td&gt;10.99&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;-12.54&lt;/td&gt;&lt;td&gt;-0.06&lt;/td&gt;&lt;td&gt;6.34&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-16.28&lt;/td&gt;&lt;td&gt;-0.21&lt;/td&gt;&lt;td&gt;7.87&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;-31.71&lt;/td&gt;&lt;td&gt;-0.36&lt;/td&gt;&lt;td&gt;7.51&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-7.84&lt;/td&gt;&lt;td&gt;-0.25&lt;/td&gt;&lt;td&gt;9.37&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;11.71&lt;/td&gt;&lt;td&gt;-0.07&lt;/td&gt;&lt;td&gt;7.39&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;td&gt;14.15&lt;/td&gt;&lt;td&gt;-0.19&lt;/td&gt;&lt;td&gt;8.72&lt;/td&gt;&lt;td&gt;0.06&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力及公用事业&lt;/td&gt;&lt;td&gt;17.15&lt;/td&gt;&lt;td&gt;-0.32&lt;/td&gt;&lt;td&gt;6.81&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;-3.50&lt;/td&gt;&lt;td&gt;-0.24&lt;/td&gt;&lt;td&gt;7.78&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;8.92&lt;/td&gt;&lt;td&gt;-0.16&lt;/td&gt;&lt;td&gt;6.51&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-24.71&lt;/td&gt;&lt;td&gt;-0.04&lt;/td&gt;&lt;td&gt;8.50&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;9.94&lt;/td&gt;&lt;td&gt;0.52&lt;/td&gt;&lt;td&gt;5.59&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;td&gt;9.54&lt;/td&gt;&lt;td&gt;-0.03&lt;/td&gt;&lt;td&gt;6.35&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;交通运输&lt;/td&gt;&lt;td&gt;4.85&lt;/td&gt;&lt;td&gt;-0.02&lt;/td&gt;&lt;td&gt;6.48&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;td&gt;-1.00&lt;/td&gt;&lt;td&gt;-0.11&lt;/td&gt;&lt;td&gt;7.53&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑&lt;/td&gt;&lt;td&gt;18.57&lt;/td&gt;&lt;td&gt;-0.01&lt;/td&gt;&lt;td&gt;6.66&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;6.31&lt;/td&gt;&lt;td&gt;-0.09&lt;/td&gt;&lt;td&gt;7.57&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;房地产&lt;/td&gt;&lt;td&gt;-7.83&lt;/td&gt;&lt;td&gt;-0.01&lt;/td&gt;&lt;td&gt;6.14&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-2.68&lt;/td&gt;&lt;td&gt;-0.09&lt;/td&gt;&lt;td&gt;7.94&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家电&lt;/td&gt;&lt;td&gt;-5.15&lt;/td&gt;&lt;td&gt;0.09&lt;/td&gt;&lt;td&gt;6.07&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-4.60&lt;/td&gt;&lt;td&gt;0.10&lt;/td&gt;&lt;td&gt;8.05&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;农林牧渔&lt;/td&gt;&lt;td&gt;3.45&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;5.43&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;0.32&lt;/td&gt;&lt;td&gt;-0.07&lt;/td&gt;&lt;td&gt;7.13&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;石油石化&lt;/td&gt;&lt;td&gt;7.15&lt;/td&gt;&lt;td&gt;0.16&lt;/td&gt;&lt;td&gt;6.12&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;td&gt;-7.45&lt;/td&gt;&lt;td&gt;0.25&lt;/td&gt;&lt;td&gt;7.21&lt;/td&gt;&lt;td&gt;0.06&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;1.15&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;4.30&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;-2.29&lt;/td&gt;&lt;td&gt;-0.03&lt;/td&gt;&lt;td&gt;5.73&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;6.46&lt;/td&gt;&lt;td&gt;-0.02&lt;/td&gt;&lt;td&gt;7.13&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;td&gt;-1.73&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;td&gt;8.80&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建材&lt;/td&gt;&lt;td&gt;-1.31&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;4.98&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;3.52&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;6.42&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;轻工制造&lt;/td&gt;&lt;td&gt;-0.93&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;3.88&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;-4.72&lt;/td&gt;&lt;td&gt;-0.03&lt;/td&gt;&lt;td&gt;4.28&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;4.62&lt;/td&gt;&lt;td&gt;-0.07&lt;/td&gt;&lt;td&gt;6.64&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;td&gt;1.53&lt;/td&gt;&lt;td&gt;-0.10&lt;/td&gt;&lt;td&gt;8.29&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费者服务&lt;/td&gt;&lt;td&gt;4.73&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;5.60&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;-4.35&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;6.99&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纺织服装&lt;/td&gt;&lt;td&gt;0.24&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;3.53&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;-0.20&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;4.84&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合&lt;/td&gt;&lt;td&gt;0.77&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;6.45&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;0.36&lt;/td&gt;&lt;td&gt;-0.01&lt;/td&gt;&lt;td&gt;7.35&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合金融&lt;/td&gt;&lt;td&gt;-1.65&lt;/td&gt;&lt;td&gt;-0.02&lt;/td&gt;&lt;td&gt;7.48&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;-1.69&lt;/td&gt;&lt;td&gt;-0.01&lt;/td&gt;&lt;td&gt;9.56&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：万得，西南证券整理，数据截至2026/01/29
+# 1.3 公募基金相关指标
+选取基金一级分类中所有股票型基金、混合型基金，并剔除基金二级分类中的偏债混合型基金，统计该类型基金过去发行情况。本周主动权益基金发行规模总计 312.37 亿元。主动权益基金近一个月发行规模 811.05亿元。
+图 7：主动权益基金发行规模(右轴：万得全 A 收盘价)  
+![](images/c6a0a46de15d5a70187b1d521838ed842c0f6c6aa9dadf4c803ed37a37c7789d.jpg)  
+数据来源：万得，西南证券整理，数据截至2026/01/30
+# 2 公募基金仓位及行业配置高频探测
+选取基金二级分类中的偏股混合基金、普通股票基金、灵活配置基金作为主动权益基金。根据西南金工公募基金仓位及行业配置高频探测模型，截至 2026年 1月 30日，全市场主动权益基金平均仓位 $8 2 . 6 7 \%$ ，较于上一周减仓 $1 . 2 1 \%$ 。
+细分不同基金类型来看，偏股混合型基金、普通股票型基金和灵活配置型基金均出现轻微减仓。此外，不同规模的基金均呈现不同程度的减仓。
+表 3：主动权益基金仓位情况  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;基金数量&lt;/td&gt;&lt;td&gt;本周股票仓位&lt;/td&gt;&lt;td&gt;上周股票仓位&lt;/td&gt;&lt;td&gt;四周前股票仓位&lt;/td&gt;&lt;td&gt;最近一周股票仓位变化&lt;/td&gt;&lt;td&gt;最近四周股票仓位变化&lt;/td&gt;&lt;td&gt;最近一周加仓基金占比&lt;/td&gt;&lt;td&gt;最近四周加仓基金占比&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;全样本&lt;/td&gt;&lt;td&gt;1078&lt;/td&gt;&lt;td&gt;82.67%&lt;/td&gt;&lt;td&gt;83.88%&lt;/td&gt;&lt;td&gt;85.67%&lt;/td&gt;&lt;td&gt;-1.21%&lt;/td&gt;&lt;td&gt;-2.99%&lt;/td&gt;&lt;td&gt;39.28%&lt;/td&gt;&lt;td&gt;39.04%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="9"&gt;不同类型基金仓位变化情况&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;643&lt;/td&gt;&lt;td&gt;80.39%&lt;/td&gt;&lt;td&gt;81.80%&lt;/td&gt;&lt;td&gt;83.79%&lt;/td&gt;&lt;td&gt;-1.42%&lt;/td&gt;&lt;td&gt;-3.41%&lt;/td&gt;&lt;td&gt;38.96%&lt;/td&gt;&lt;td&gt;38.96%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;普通股票型基金&lt;/td&gt;&lt;td&gt;225&lt;/td&gt;&lt;td&gt;89.27%&lt;/td&gt;&lt;td&gt;89.91%&lt;/td&gt;&lt;td&gt;90.72%&lt;/td&gt;&lt;td&gt;-0.64%&lt;/td&gt;&lt;td&gt;-1.45%&lt;/td&gt;&lt;td&gt;43.18%&lt;/td&gt;&lt;td&gt;42.05%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;灵活配置型基金&lt;/td&gt;&lt;td&gt;210&lt;/td&gt;&lt;td&gt;82.35%&lt;/td&gt;&lt;td&gt;83.55%&lt;/td&gt;&lt;td&gt;85.78%&lt;/td&gt;&lt;td&gt;-1.20%&lt;/td&gt;&lt;td&gt;-3.43%&lt;/td&gt;&lt;td&gt;36.02%&lt;/td&gt;&lt;td&gt;36.02%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="9"&gt;不同规模基金仓位变化情况&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2亿到20亿&lt;/td&gt;&lt;td&gt;892&lt;/td&gt;&lt;td&gt;82.55%&lt;/td&gt;&lt;td&gt;83.70%&lt;/td&gt;&lt;td&gt;85.47%&lt;/td&gt;&lt;td&gt;-1.15%&lt;/td&gt;&lt;td&gt;-2.92%&lt;/td&gt;&lt;td&gt;39.30%&lt;/td&gt;&lt;td&gt;38.88%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;20亿到50亿&lt;/td&gt;&lt;td&gt;150&lt;/td&gt;&lt;td&gt;82.60%&lt;/td&gt;&lt;td&gt;84.22%&lt;/td&gt;&lt;td&gt;86.33%&lt;/td&gt;&lt;td&gt;-1.62%&lt;/td&gt;&lt;td&gt;-3.72%&lt;/td&gt;&lt;td&gt;38.18%&lt;/td&gt;&lt;td&gt;37.27%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;50亿到80亿&lt;/td&gt;&lt;td&gt;17&lt;/td&gt;&lt;td&gt;83.66%&lt;/td&gt;&lt;td&gt;84.92%&lt;/td&gt;&lt;td&gt;87.98%&lt;/td&gt;&lt;td&gt;-1.26%&lt;/td&gt;&lt;td&gt;-4.32%&lt;/td&gt;&lt;td&gt;44.44%&lt;/td&gt;&lt;td&gt;38.89%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;大于80亿&lt;/td&gt;&lt;td&gt;19&lt;/td&gt;&lt;td&gt;87.52%&lt;/td&gt;&lt;td&gt;88.16%&lt;/td&gt;&lt;td&gt;86.96%&lt;/td&gt;&lt;td&gt;-0.64%&lt;/td&gt;&lt;td&gt;0.56%&lt;/td&gt;&lt;td&gt;40.00%&lt;/td&gt;&lt;td&gt;60.00%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：万得，恒生聚源，西南证券整理，数据截至2026/01/29
+图 8：主动权益基金仓位变化  
+![](images/55d9ac969bb348e3d4dce496696611025c3e512939b040855e583ef0449d7a20.jpg)  
+数据来源：万得，西南证券整理，数据截至2026/01/30
+图 9：2023 年初至今各板块仓位变化  
+![](images/9db9a045144e0b926c2ede8ec6fd854443acc743cdf1c8d9d8d3f3b209ebb5b0.jpg)  
+数据来源：万得，西南证券整理，数据截至2026/01/30
+分行业来看，最近一周主动权益基金主要加仓机械、基础化工、中游制造综合板块等行业，仓位分别上升 $0 . 2 6 \%$ 、 $0 . 2 3 \%$ 、 $0 . 2 5 \%$ ；最近一周主动权益基金主要减仓医药、通信、食品饮料等行业，仓位分别下降 $0 . 5 3 \%$ 、 $0 . 3 1 \%$ 、 $0 . 1 7 \%$ 。
+从最近一个月（四周）主动权益基金仓位变动情况来看，基础化工、机械、中游制造综合板块等行业仓位明显增加，分别加仓 $0 . 8 3 \%$ 、 $0 . 4 7 \%$ 、 $0 . 4 3 \%$ ；计算机、家电、通信行业仓位明显减少，减仓 $1 . 1 9 \%$ 、 $0 . 5 7 \%$ 、 $0 . 5 6 \%$ 。
+相较于本周指数表现来看，国防军工，综合金融，汽车周内分别下跌 $7 . 6 0 \%$ ， $6 . 1 6 \%$ 和$5 . 1 2 \%$ ，但分别加仓 $0 . 1 1 \%$ ， $0 . 1 4 \%$ 和 $0 . 1 0 \%$ ；通信周内上涨 $4 . 7 7 \%$ ，但整体减仓 $0 . 3 1 \%$ ；石油石化和煤炭周内涨幅明显，分别为 $6 . 9 2 \%$ 和 $3 . 9 8 \%$ ，但分别仅加仓 $0 . 1 1 \%$ 和 $0 . 0 1 \%$ 。
+表 4：主动权益基金行业仓位探测情况  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;板块&lt;/td&gt;&lt;td&gt;行业&lt;/td&gt;&lt;td&gt;本周 涨跌幅(%)&lt;/td&gt;&lt;td&gt;本周 行业仓位&lt;/td&gt;&lt;td&gt;一周前 行业仓位&lt;/td&gt;&lt;td&gt;四周前 行业仓位&lt;/td&gt;&lt;td&gt;相对中证800 超低配情况&lt;/td&gt;&lt;td&gt;最近一周 增减仓&lt;/td&gt;&lt;td&gt;最近四周 增减仓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;TMT&lt;/td&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;0.32&lt;/td&gt;&lt;td&gt;1.72%&lt;/td&gt;&lt;td&gt;1.76%&lt;/td&gt;&lt;td&gt;2.00%&lt;/td&gt;&lt;td&gt;0.24%&lt;/td&gt;&lt;td&gt;-0.04%&lt;/td&gt;&lt;td&gt;-0.28%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;-2.18&lt;/td&gt;&lt;td&gt;10.65%&lt;/td&gt;&lt;td&gt;10.57%&lt;/td&gt;&lt;td&gt;10.43%&lt;/td&gt;&lt;td&gt;0.72%&lt;/td&gt;&lt;td&gt;0.08%&lt;/td&gt;&lt;td&gt;0.21%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;-4.47&lt;/td&gt;&lt;td&gt;3.68%&lt;/td&gt;&lt;td&gt;3.83%&lt;/td&gt;&lt;td&gt;4.87%&lt;/td&gt;&lt;td&gt;-0.74%&lt;/td&gt;&lt;td&gt;-0.15%&lt;/td&gt;&lt;td&gt;-1.19%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;4.77&lt;/td&gt;&lt;td&gt;4.53%&lt;/td&gt;&lt;td&gt;4.85%&lt;/td&gt;&lt;td&gt;5.09%&lt;/td&gt;&lt;td&gt;1.77%&lt;/td&gt;&lt;td&gt;-0.31%&lt;/td&gt;&lt;td&gt;-0.56%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="7"&gt;中游制造&lt;/td&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;-7.60&lt;/td&gt;&lt;td&gt;2.13%&lt;/td&gt;&lt;td&gt;2.01%&lt;/td&gt;&lt;td&gt;2.11%&lt;/td&gt;&lt;td&gt;-0.33%&lt;/td&gt;&lt;td&gt;0.11%&lt;/td&gt;&lt;td&gt;0.01%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑&lt;/td&gt;&lt;td&gt;-1.55&lt;/td&gt;&lt;td&gt;1.22%&lt;/td&gt;&lt;td&gt;1.12%&lt;/td&gt;&lt;td&gt;1.23%&lt;/td&gt;&lt;td&gt;-0.54%&lt;/td&gt;&lt;td&gt;0.10%&lt;/td&gt;&lt;td&gt;-0.02%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机械&lt;/td&gt;&lt;td&gt;-4.23&lt;/td&gt;&lt;td&gt;5.60%&lt;/td&gt;&lt;td&gt;5.35%&lt;/td&gt;&lt;td&gt;5.14%&lt;/td&gt;&lt;td&gt;2.07%&lt;/td&gt;&lt;td&gt;0.26%&lt;/td&gt;&lt;td&gt;0.47%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;-5.12&lt;/td&gt;&lt;td&gt;3.38%&lt;/td&gt;&lt;td&gt;3.28%&lt;/td&gt;&lt;td&gt;3.34%&lt;/td&gt;&lt;td&gt;-0.04%&lt;/td&gt;&lt;td&gt;0.10%&lt;/td&gt;&lt;td&gt;0.04%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力及公用事业&lt;/td&gt;&lt;td&gt;-1.61&lt;/td&gt;&lt;td&gt;2.68%&lt;/td&gt;&lt;td&gt;2.56%&lt;/td&gt;&lt;td&gt;2.34%&lt;/td&gt;&lt;td&gt;-0.96%&lt;/td&gt;&lt;td&gt;0.12%&lt;/td&gt;&lt;td&gt;0.34%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力设备及新能源&lt;/td&gt;&lt;td&gt;-4.56&lt;/td&gt;&lt;td&gt;6.40%&lt;/td&gt;&lt;td&gt;6.50%&lt;/td&gt;&lt;td&gt;6.29%&lt;/td&gt;&lt;td&gt;-1.23%&lt;/td&gt;&lt;td&gt;-0.09%&lt;/td&gt;&lt;td&gt;0.11%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合&lt;/td&gt;&lt;td&gt;-3.96&lt;/td&gt;&lt;td&gt;2.65%&lt;/td&gt;&lt;td&gt;2.40%&lt;/td&gt;&lt;td&gt;2.22%&lt;/td&gt;&lt;td&gt;2.57%&lt;/td&gt;&lt;td&gt;0.25%&lt;/td&gt;&lt;td&gt;0.43%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医药&lt;/td&gt;&lt;td&gt;医药&lt;/td&gt;&lt;td&gt;-3.33&lt;/td&gt;&lt;td&gt;8.62%&lt;/td&gt;&lt;td&gt;9.15%&lt;/td&gt;&lt;td&gt;8.51%&lt;/td&gt;&lt;td&gt;1.48%&lt;/td&gt;&lt;td&gt;-0.53%&lt;/td&gt;&lt;td&gt;0.11%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="7"&gt;周期&lt;/td&gt;&lt;td&gt;交通运输&lt;/td&gt;&lt;td&gt;-1.29&lt;/td&gt;&lt;td&gt;1.95%&lt;/td&gt;&lt;td&gt;1.95%&lt;/td&gt;&lt;td&gt;2.04%&lt;/td&gt;&lt;td&gt;-1.10%&lt;/td&gt;&lt;td&gt;0.00%&lt;/td&gt;&lt;td&gt;-0.10%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;-2.40&lt;/td&gt;&lt;td&gt;6.76%&lt;/td&gt;&lt;td&gt;6.53%&lt;/td&gt;&lt;td&gt;5.93%&lt;/td&gt;&lt;td&gt;3.12%&lt;/td&gt;&lt;td&gt;0.23%&lt;/td&gt;&lt;td&gt;0.83%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建材&lt;/td&gt;&lt;td&gt;0.08&lt;/td&gt;&lt;td&gt;1.03%&lt;/td&gt;&lt;td&gt;1.07%&lt;/td&gt;&lt;td&gt;0.95%&lt;/td&gt;&lt;td&gt;0.31%&lt;/td&gt;&lt;td&gt;-0.04%&lt;/td&gt;&lt;td&gt;0.08%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;3.70&lt;/td&gt;&lt;td&gt;5.64%&lt;/td&gt;&lt;td&gt;5.68%&lt;/td&gt;&lt;td&gt;5.73%&lt;/td&gt;&lt;td&gt;1.57%&lt;/td&gt;&lt;td&gt;-0.03%&lt;/td&gt;&lt;td&gt;-0.09%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;3.98&lt;/td&gt;&lt;td&gt;1.86%&lt;/td&gt;&lt;td&gt;1.85%&lt;/td&gt;&lt;td&gt;1.62%&lt;/td&gt;&lt;td&gt;0.33%&lt;/td&gt;&lt;td&gt;0.01%&lt;/td&gt;&lt;td&gt;0.24%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;石油石化&lt;/td&gt;&lt;td&gt;6.92&lt;/td&gt;&lt;td&gt;2.04%&lt;/td&gt;&lt;td&gt;1.93%&lt;/td&gt;&lt;td&gt;1.92%&lt;/td&gt;&lt;td&gt;0.48%&lt;/td&gt;&lt;td&gt;0.11%&lt;/td&gt;&lt;td&gt;0.12%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;-2.02&lt;/td&gt;&lt;td&gt;2.00%&lt;/td&gt;&lt;td&gt;1.97%&lt;/td&gt;&lt;td&gt;2.10%&lt;/td&gt;&lt;td&gt;1.17%&lt;/td&gt;&lt;td&gt;0.03%&lt;/td&gt;&lt;td&gt;-0.10%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="7"&gt;消费&lt;/td&gt;&lt;td&gt;农林牧渔&lt;/td&gt;&lt;td&gt;1.54&lt;/td&gt;&lt;td&gt;2.47%&lt;/td&gt;&lt;td&gt;2.46%&lt;/td&gt;&lt;td&gt;2.14%&lt;/td&gt;&lt;td&gt;1.17%&lt;/td&gt;&lt;td&gt;0.01%&lt;/td&gt;&lt;td&gt;0.33%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;-2.09&lt;/td&gt;&lt;td&gt;1.00%&lt;/td&gt;&lt;td&gt;0.98%&lt;/td&gt;&lt;td&gt;1.19%&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;0.02%&lt;/td&gt;&lt;td&gt;-0.19%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家电&lt;/td&gt;&lt;td&gt;-2.53&lt;/td&gt;&lt;td&gt;2.87%&lt;/td&gt;&lt;td&gt;2.90%&lt;/td&gt;&lt;td&gt;3.43%&lt;/td&gt;&lt;td&gt;-0.07%&lt;/td&gt;&lt;td&gt;-0.03%&lt;/td&gt;&lt;td&gt;-0.57%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费者服务&lt;/td&gt;&lt;td&gt;-3.34&lt;/td&gt;&lt;td&gt;1.10%&lt;/td&gt;&lt;td&gt;1.01%&lt;/td&gt;&lt;td&gt;1.08%&lt;/td&gt;&lt;td&gt;0.61%&lt;/td&gt;&lt;td&gt;0.10%&lt;/td&gt;&lt;td&gt;0.02%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纺织服装&lt;/td&gt;&lt;td&gt;-2.52&lt;/td&gt;&lt;td&gt;1.08%&lt;/td&gt;&lt;td&gt;1.11%&lt;/td&gt;&lt;td&gt;1.26%&lt;/td&gt;&lt;td&gt;0.85%&lt;/td&gt;&lt;td&gt;-0.02%&lt;/td&gt;&lt;td&gt;-0.18%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;轻工制造&lt;/td&gt;&lt;td&gt;-1.55&lt;/td&gt;&lt;td&gt;1.44%&lt;/td&gt;&lt;td&gt;1.44%&lt;/td&gt;&lt;td&gt;1.35%&lt;/td&gt;&lt;td&gt;1.13%&lt;/td&gt;&lt;td&gt;-0.01%&lt;/td&gt;&lt;td&gt;0.08%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;1.79&lt;/td&gt;&lt;td&gt;4.56%&lt;/td&gt;&lt;td&gt;4.73%&lt;/td&gt;&lt;td&gt;4.41%&lt;/td&gt;&lt;td&gt;-3.01%&lt;/td&gt;&lt;td&gt;-0.17%&lt;/td&gt;&lt;td&gt;0.15%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;金融地产&lt;/td&gt;&lt;td&gt;房地产&lt;/td&gt;&lt;td&gt;-2.10&lt;/td&gt;&lt;td&gt;2.18%&lt;/td&gt;&lt;td&gt;2.22%&lt;/td&gt;&lt;td&gt;2.20%&lt;/td&gt;&lt;td&gt;1.21%&lt;/td&gt;&lt;td&gt;-0.04%&lt;/td&gt;&lt;td&gt;-0.02%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合金融&lt;/td&gt;&lt;td&gt;-6.16&lt;/td&gt;&lt;td&gt;0.71%&lt;/td&gt;&lt;td&gt;0.58%&lt;/td&gt;&lt;td&gt;0.95%&lt;/td&gt;&lt;td&gt;0.66%&lt;/td&gt;&lt;td&gt;0.14%&lt;/td&gt;&lt;td&gt;-0.24%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;0.87&lt;/td&gt;&lt;td&gt;3.35%&lt;/td&gt;&lt;td&gt;3.44%&lt;/td&gt;&lt;td&gt;3.54%&lt;/td&gt;&lt;td&gt;-6.32%&lt;/td&gt;&lt;td&gt;-0.09%&lt;/td&gt;&lt;td&gt;-0.19%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;非银行金融&lt;/td&gt;&lt;td&gt;1.18&lt;/td&gt;&lt;td&gt;4.69%&lt;/td&gt;&lt;td&gt;4.80%&lt;/td&gt;&lt;td&gt;4.54%&lt;/td&gt;&lt;td&gt;-5.97%&lt;/td&gt;&lt;td&gt;-0.11%&lt;/td&gt;&lt;td&gt;0.15%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：万得，恒生聚源，西南证券整理，数据截至2026/01/30
+图 10：2023年初至今部分行业仓位变化  
+![](images/79e9f46405bc121ecf9133ad4d5dac3de3f9400cacf2489978b1300407138f75.jpg)  
+数据来源：万得，西南证券整理，数据截至2026/01/30
+# 3 因子表现跟踪
+本文统计以下各因子值近期表现，历史数据取值范围为近五年的周频数据。若无特殊说明，后文所有IC计算方式均为RankIC。
+从IC表现来看，近一周1/PB、PS、股息率等因子表现较好，IC值分别为22.77%、-21.76%、$2 0 . 5 0 \%$ ；ROE 环比、净利润同比、归母净利润同比等因子表现较差，IC分别为 $1 . 0 4 \%$ 、 $2 . 1 4 \%$ 和 $2 . 2 6 \%$ 。近一个月归母净利润/负债、流动比率、速动比率表现较好，IC为 $8 . 9 8 \%$ 、 $7 . 9 9 \%$ 、$7 . 6 0 \%$ ；reverse_120_5、ROE 环比等因子表现较差。近一年 reverse_20、reverse_120_5、对数市值等因子表现较好，IC分别为 $- 5 . 8 3 \%$ 、 $4 . 7 8 \%$ 、 $- 3 . 9 5 \%$ ；ROE 环比、EPS同比等因子表现较差。
+表 5：因子近期表现情况  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;方向&lt;/td&gt;&lt;td&gt;近一周IC(%)&lt;/td&gt;&lt;td&gt;近一个月平均IC(%)&lt;/td&gt;&lt;td&gt;近一年平均IC(%)&lt;/td&gt;&lt;td&gt;历史IC(%)&lt;/td&gt;&lt;td&gt;历史ICIR(%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EPS同比&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;3.37&lt;/td&gt;&lt;td&gt;3.28&lt;/td&gt;&lt;td&gt;0.21&lt;/td&gt;&lt;td&gt;1.25&lt;/td&gt;&lt;td&gt;20.70&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;净利润同比&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;2.14&lt;/td&gt;&lt;td&gt;3.60&lt;/td&gt;&lt;td&gt;0.29&lt;/td&gt;&lt;td&gt;1.02&lt;/td&gt;&lt;td&gt;16.07&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;ROE环比&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;1.04&lt;/td&gt;&lt;td&gt;0.10&lt;/td&gt;&lt;td&gt;0.16&lt;/td&gt;&lt;td&gt;0.97&lt;/td&gt;&lt;td&gt;24.94&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;归母净利润同比&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;2.26&lt;/td&gt;&lt;td&gt;3.71&lt;/td&gt;&lt;td&gt;0.30&lt;/td&gt;&lt;td&gt;1.04&lt;/td&gt;&lt;td&gt;16.19&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;营业利润率&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;7.61&lt;/td&gt;&lt;td&gt;1.63&lt;/td&gt;&lt;td&gt;0.86&lt;/td&gt;&lt;td&gt;0.48&lt;/td&gt;&lt;td&gt;5.37&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;净利润率&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;6.73&lt;/td&gt;&lt;td&gt;2.49&lt;/td&gt;&lt;td&gt;0.92&lt;/td&gt;&lt;td&gt;0.23&lt;/td&gt;&lt;td&gt;2.49&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;ROETTM&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;6.95&lt;/td&gt;&lt;td&gt;2.61&lt;/td&gt;&lt;td&gt;0.75&lt;/td&gt;&lt;td&gt;0.25&lt;/td&gt;&lt;td&gt;2.40&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;ROIC&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;7.13&lt;/td&gt;&lt;td&gt;2.57&lt;/td&gt;&lt;td&gt;0.57&lt;/td&gt;&lt;td&gt;0.27&lt;/td&gt;&lt;td&gt;2.65&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1/PB&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;22.77&lt;/td&gt;&lt;td&gt;-1.74&lt;/td&gt;&lt;td&gt;3.78&lt;/td&gt;&lt;td&gt;3.39&lt;/td&gt;&lt;td&gt;25.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1/PE&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;13.24&lt;/td&gt;&lt;td&gt;1.40&lt;/td&gt;&lt;td&gt;1.85&lt;/td&gt;&lt;td&gt;1.92&lt;/td&gt;&lt;td&gt;18.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;PS&lt;/td&gt;&lt;td&gt;负向&lt;/td&gt;&lt;td&gt;-21.76&lt;/td&gt;&lt;td&gt;3.73&lt;/td&gt;&lt;td&gt;-1.87&lt;/td&gt;&lt;td&gt;-2.25&lt;/td&gt;&lt;td&gt;-18.49&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;对数市值&lt;/td&gt;&lt;td&gt;负向&lt;/td&gt;&lt;td&gt;-5.24&lt;/td&gt;&lt;td&gt;-2.77&lt;/td&gt;&lt;td&gt;-3.95&lt;/td&gt;&lt;td&gt;-3.48&lt;/td&gt;&lt;td&gt;-22.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;股息率&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;20.51&lt;/td&gt;&lt;td&gt;-5.82&lt;/td&gt;&lt;td&gt;1.52&lt;/td&gt;&lt;td&gt;1.96&lt;/td&gt;&lt;td&gt;17.86&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;归母净利润/负债&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-7.65&lt;/td&gt;&lt;td&gt;8.98&lt;/td&gt;&lt;td&gt;1.73&lt;/td&gt;&lt;td&gt;0.54&lt;/td&gt;&lt;td&gt;4.96&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;速动比率&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-8.69&lt;/td&gt;&lt;td&gt;7.60&lt;/td&gt;&lt;td&gt;1.48&lt;/td&gt;&lt;td&gt;0.44&lt;/td&gt;&lt;td&gt;3.96&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;流动比率&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-9.37&lt;/td&gt;&lt;td&gt;7.99&lt;/td&gt;&lt;td&gt;1.62&lt;/td&gt;&lt;td&gt;0.45&lt;/td&gt;&lt;td&gt;4.27&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;净资产负债率&lt;/td&gt;&lt;td&gt;负向&lt;/td&gt;&lt;td&gt;4.81&lt;/td&gt;&lt;td&gt;-6.21&lt;/td&gt;&lt;td&gt;-1.10&lt;/td&gt;&lt;td&gt;-0.53&lt;/td&gt;&lt;td&gt;-5.14&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;reverse_20&lt;/td&gt;&lt;td&gt;负向&lt;/td&gt;&lt;td&gt;-12.48&lt;/td&gt;&lt;td&gt;3.04&lt;/td&gt;&lt;td&gt;-5.83&lt;/td&gt;&lt;td&gt;-5.10&lt;/td&gt;&lt;td&gt;-33.88&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;reverse_120_5&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-14.66&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;td&gt;4.78&lt;/td&gt;&lt;td&gt;4.44&lt;/td&gt;&lt;td&gt;30.79&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：万得，恒生聚源，西南证券整理，数据截至2026/01/30
+从多头收益相对于万得全 A的超额表现来看，本周 1/PE、1/PB、股息率表现优异，超额收益 $1 . 4 5 \%$ 、 $1 . 1 5 \%$ 、 $1 . 0 2 \%$ 。reverse_120_5、归母净利润/负债、净资产负债率等因子则表现较差，相对于全 A 超额收益 $- 3 . 2 2 \%$ 、 $- 2 . 1 2 \%$ 、 $- 2 . 1 2 \%$ ；近一个月来看，对数市值、1/PB 表现相对较差，相对万得全 A 累计超额收益 $- 2 . 1 0 \%$ 、 $- 1 . 4 7 \%$ ， EPS 同比、归母净利润同比、净利润同比则表现较好，近一个月相对万得全 A累计超额 $3 . 5 0 \%$ 、 $3 . 3 8 \%$ 、 $3 . 0 8 \%$ 。
+表 6：因子近期多头收益表现  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;方向&lt;/td&gt;&lt;td&gt;近一周
+超额收益
+(%)&lt;/td&gt;&lt;td&gt;近一月
+超额收益
+(%)&lt;/td&gt;&lt;td&gt;近一年
+超额收益
+(%)&lt;/td&gt;&lt;td&gt;年化
+超额收益
+(%)&lt;/td&gt;&lt;td&gt;年化波动
+(%)&lt;/td&gt;&lt;td&gt;信息比率
+(%)&lt;/td&gt;&lt;td&gt;最大回撤
+(%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EPS 同比&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-1.17&lt;/td&gt;&lt;td&gt;3.50&lt;/td&gt;&lt;td&gt;13.08&lt;/td&gt;&lt;td&gt;11.14&lt;/td&gt;&lt;td&gt;9.14&lt;/td&gt;&lt;td&gt;121.86&lt;/td&gt;&lt;td&gt;17.79&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;净利润同比&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-1.13&lt;/td&gt;&lt;td&gt;3.08&lt;/td&gt;&lt;td&gt;11.18&lt;/td&gt;&lt;td&gt;11.07&lt;/td&gt;&lt;td&gt;9.24&lt;/td&gt;&lt;td&gt;119.80&lt;/td&gt;&lt;td&gt;17.62&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;ROE 环比&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-1.93&lt;/td&gt;&lt;td&gt;-0.36&lt;/td&gt;&lt;td&gt;3.42&lt;/td&gt;&lt;td&gt;13.07&lt;/td&gt;&lt;td&gt;9.85&lt;/td&gt;&lt;td&gt;132.68&lt;/td&gt;&lt;td&gt;20.80&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;归母净利润同比&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-1.31&lt;/td&gt;&lt;td&gt;3.38&lt;/td&gt;&lt;td&gt;12.58&lt;/td&gt;&lt;td&gt;11.43&lt;/td&gt;&lt;td&gt;9.21&lt;/td&gt;&lt;td&gt;124.05&lt;/td&gt;&lt;td&gt;17.73&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;营业利润率&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-0.07&lt;/td&gt;&lt;td&gt;0.08&lt;/td&gt;&lt;td&gt;-2.75&lt;/td&gt;&lt;td&gt;5.81&lt;/td&gt;&lt;td&gt;8.12&lt;/td&gt;&lt;td&gt;71.58&lt;/td&gt;&lt;td&gt;23.67&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;净利润率&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-0.29&lt;/td&gt;&lt;td&gt;-0.06&lt;/td&gt;&lt;td&gt;-1.47&lt;/td&gt;&lt;td&gt;6.40&lt;/td&gt;&lt;td&gt;8.52&lt;/td&gt;&lt;td&gt;75.15&lt;/td&gt;&lt;td&gt;21.48&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;ROETTM&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-0.02&lt;/td&gt;&lt;td&gt;1.55&lt;/td&gt;&lt;td&gt;-0.03&lt;/td&gt;&lt;td&gt;14.58&lt;/td&gt;&lt;td&gt;12.83&lt;/td&gt;&lt;td&gt;113.64&lt;/td&gt;&lt;td&gt;35.25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;ROIC&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-0.24&lt;/td&gt;&lt;td&gt;0.89&lt;/td&gt;&lt;td&gt;-3.24&lt;/td&gt;&lt;td&gt;15.49&lt;/td&gt;&lt;td&gt;12.69&lt;/td&gt;&lt;td&gt;122.06&lt;/td&gt;&lt;td&gt;35.16&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1/PB&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;1.15&lt;/td&gt;&lt;td&gt;-1.47&lt;/td&gt;&lt;td&gt;-9.43&lt;/td&gt;&lt;td&gt;7.11&lt;/td&gt;&lt;td&gt;9.60&lt;/td&gt;&lt;td&gt;74.00&lt;/td&gt;&lt;td&gt;34.48&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1/PE&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;1.45&lt;/td&gt;&lt;td&gt;-0.78&lt;/td&gt;&lt;td&gt;-5.19&lt;/td&gt;&lt;td&gt;7.63&lt;/td&gt;&lt;td&gt;7.85&lt;/td&gt;&lt;td&gt;97.18&lt;/td&gt;&lt;td&gt;24.54&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;PS&lt;/td&gt;&lt;td&gt;负向&lt;/td&gt;&lt;td&gt;0.76&lt;/td&gt;&lt;td&gt;0.54&lt;/td&gt;&lt;td&gt;-3.83&lt;/td&gt;&lt;td&gt;5.01&lt;/td&gt;&lt;td&gt;8.78&lt;/td&gt;&lt;td&gt;57.08&lt;/td&gt;&lt;td&gt;34.24&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;对数市值&lt;/td&gt;&lt;td&gt;负向&lt;/td&gt;&lt;td&gt;-1.15&lt;/td&gt;&lt;td&gt;-2.10&lt;/td&gt;&lt;td&gt;5.38&lt;/td&gt;&lt;td&gt;27.89&lt;/td&gt;&lt;td&gt;14.23&lt;/td&gt;&lt;td&gt;195.97&lt;/td&gt;&lt;td&gt;29.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;股息率&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;1.02&lt;/td&gt;&lt;td&gt;-0.90&lt;/td&gt;&lt;td&gt;-6.38&lt;/td&gt;&lt;td&gt;5.17&lt;/td&gt;&lt;td&gt;7.92&lt;/td&gt;&lt;td&gt;65.31&lt;/td&gt;&lt;td&gt;26.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;归母净利润/负债&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-2.12&lt;/td&gt;&lt;td&gt;1.64&lt;/td&gt;&lt;td&gt;12.77&lt;/td&gt;&lt;td&gt;7.34&lt;/td&gt;&lt;td&gt;12.25&lt;/td&gt;&lt;td&gt;59.95&lt;/td&gt;&lt;td&gt;30.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;速动比率&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-2.10&lt;/td&gt;&lt;td&gt;1.82&lt;/td&gt;&lt;td&gt;13.70&lt;/td&gt;&lt;td&gt;8.14&lt;/td&gt;&lt;td&gt;12.44&lt;/td&gt;&lt;td&gt;65.42&lt;/td&gt;&lt;td&gt;28.58&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;流动比率&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-2.03&lt;/td&gt;&lt;td&gt;1.97&lt;/td&gt;&lt;td&gt;14.06&lt;/td&gt;&lt;td&gt;8.20&lt;/td&gt;&lt;td&gt;12.38&lt;/td&gt;&lt;td&gt;66.26&lt;/td&gt;&lt;td&gt;29.86&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;净资产负债率&lt;/td&gt;&lt;td&gt;负向&lt;/td&gt;&lt;td&gt;-2.12&lt;/td&gt;&lt;td&gt;-0.33&lt;/td&gt;&lt;td&gt;5.06&lt;/td&gt;&lt;td&gt;6.39&lt;/td&gt;&lt;td&gt;11.46&lt;/td&gt;&lt;td&gt;55.74&lt;/td&gt;&lt;td&gt;34.18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;reverse_20&lt;/td&gt;&lt;td&gt;负向&lt;/td&gt;&lt;td&gt;-1.52&lt;/td&gt;&lt;td&gt;-1.14&lt;/td&gt;&lt;td&gt;9.48&lt;/td&gt;&lt;td&gt;4.91&lt;/td&gt;&lt;td&gt;14.31&lt;/td&gt;&lt;td&gt;34.28&lt;/td&gt;&lt;td&gt;51.23&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;reverse_120_5&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;td&gt;-3.22&lt;/td&gt;&lt;td&gt;-0.64&lt;/td&gt;&lt;td&gt;15.75&lt;/td&gt;&lt;td&gt;2.61&lt;/td&gt;&lt;td&gt;14.28&lt;/td&gt;&lt;td&gt;18.26&lt;/td&gt;&lt;td&gt;63.48&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：万得，恒生聚源，西南证券整理，数据截至2026/01/30
+# 4 风险提示
+本报告结论完全基于公开的历史数据进行统计、测算，文中部分数据有一定滞后性，同时存在第三方数据提供不准确风险，且不构成任何投资建议；投资者需充分认知自身风险偏好以及风险承受能力，市场有风险，投资需谨慎。
+# 分析师承诺
+本报告署名分析师具有中国证券业协会授予的证券投资咨询执业资格并注册为证券分析师，报告所采用的数据均来自合法合规渠道，分析逻辑基于分析师的职业理解，通过合理判断得出结论，独立、客观地出具本报告。分析师承诺不曾因，不因，也将不会因本报告中的具体推荐意见或观点而直接或间接获取任何形式的补偿。
+# 投资评级说明
+报告中投资建议所涉及的评级分为公司评级和行业评级（另有说明的除外）。评级标准为报告发布日后 6个月内的相对市场表现，即：以报告发布日后 6个月内公司股价（或行业指数）相对同期相关证券市场代表性指数的涨跌幅作为基准。其中：A 股市场以沪深 300指数为基准，新三板市场以三板成指（针对协议转让标的）或三板做市指数（针对做市转让标的）为基准；香港市场以恒生指数为基准；美国市场以纳斯达克综合指数或标普 500指数为基准。
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;公司评级&lt;/td&gt;&lt;td&gt;买入：未来6个月内，个股相对同期相关证券市场代表性指数涨幅在20%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;持有：未来6个月内，个股相对同期相关证券市场代表性指数涨幅介于10%与20%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性：未来6个月内，个股相对同期相关证券市场代表性指数涨幅介于-10%与10%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;回避：未来6个月内，个股相对同期相关证券市场代表性指数涨幅介于-20%与-10%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;卖出：未来6个月内，个股相对同期相关证券市场代表性指数涨幅在-20%以下&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业评级&lt;/td&gt;&lt;td&gt;强于大市：未来6个月内，行业整体回报高于同期相关证券市场代表性指数5%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;跟随大市：未来6个月内，行业整体回报介于同期相关证券市场代表性指数-5%与5%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;弱于大市：未来6个月内，行业整体回报低于同期相关证券市场代表性指数-5%以下&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 重要声明
+西南证券股份有限公司（以下简称“本公司”）具有中国证券监督管理委员会核准的证券投资咨询业务资格。
+本公司与作者在自身所知情范围内，与本报告中所评价或推荐的证券不存在法律法规要求披露或采取限制、静默措施的利益冲突。
+《证券期货投资者适当性管理办法》于 2017 年 7月 1 日起正式实施，本报告仅供本公司签约客户使用，若您并非本公司签约客户，为控制投资风险，请取消接收、订阅或使用本报告中的任何信息。本公司也不会因接收人收到、阅读或关注自媒体推送本报告中的内容而视其为客户。本公司或关联机构可能会持有报告中提到的公司所发行的证券并进行交易，还可能为这些公司提供或争取提供投资银行或财务顾问服务。
+本报告中的信息均来源于公开资料，本公司对这些信息的准确性、完整性或可靠性不作任何保证。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的的价格、价值及投资收入可升可跌，过往表现不应作为日后的表现依据。在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告，本公司不保证本报告所含信息保持在最新状态。同时，本公司对本报告所含信息可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
+本报告仅供参考之用，不构成出售或购买证券或其他投资标的要约或邀请。在任何情况下，本报告中的信息和意见均不构成对任何个人的投资建议。投资者应结合自己的投资目标和财务状况自行判断是否采用本报告所载内容和信息并自行承担风险，本公司及雇员对投资者使用本报告及其内容而造成的一切后果不承担任何法律责任。
+本报告
+须注明出处为“西南证券”，且不得对本报告及附录进行有悖原意的引用、删节和修改。未经授权刊载或者转发本报告及附录的，本公司将保留向其追究法律责任的权利。
+# 西南证券研究院
+# 上海
+地址：上海市浦东新区陆家嘴 21世纪大厦 10楼
+邮编：200120
+# 北京
+地址：北京市西城区金融大街 35号国际企业大厦 A 座 8楼
+邮编：100033
+# 深圳
+地址：深圳市福田区益田路6001号太平金融大厦 22楼
+邮编：518038
+# 重庆
+地址：重庆市江北区金沙门路 32号西南证券总部大楼21楼
+邮编：400025
+西南证券机构销售团队  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;区域&lt;/td&gt;&lt;td&gt;姓名&lt;/td&gt;&lt;td&gt;职务&lt;/td&gt;&lt;td&gt;座机&lt;/td&gt;&lt;td&gt;手机&lt;/td&gt;&lt;td&gt;邮箱&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="11"&gt;上海&lt;/td&gt;&lt;td&gt;蒋诗烽&lt;/td&gt;&lt;td&gt;院长助理、研究销售部经理、上海销售主管&lt;/td&gt;&lt;td&gt;021-68415309&lt;/td&gt;&lt;td&gt;18621310081&lt;/td&gt;&lt;td&gt;jsf@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;崔露文&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15642960315&lt;/td&gt;&lt;td&gt;15642960315&lt;/td&gt;&lt;td&gt;clw@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;李煜&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18801732511&lt;/td&gt;&lt;td&gt;18801732511&lt;/td&gt;&lt;td&gt;yfliyu@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汪艺&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;13127920536&lt;/td&gt;&lt;td&gt;13127920536&lt;/td&gt;&lt;td&gt;wyyf@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;戴剑箫&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;13524484975&lt;/td&gt;&lt;td&gt;13524484975&lt;/td&gt;&lt;td&gt;daijx@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张方毅&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15821376156&lt;/td&gt;&lt;td&gt;15821376156&lt;/td&gt;&lt;td&gt;zfyi@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;李嘉隆&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15800507223&lt;/td&gt;&lt;td&gt;15800507223&lt;/td&gt;&lt;td&gt;ljlong@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;欧若诗&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18223769969&lt;/td&gt;&lt;td&gt;18223769969&lt;/td&gt;&lt;td&gt;ors@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;贾文婷&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;13621609568&lt;/td&gt;&lt;td&gt;13621609568&lt;/td&gt;&lt;td&gt;jiawent@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张嘉诚&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18656199319&lt;/td&gt;&lt;td&gt;18656199319&lt;/td&gt;&lt;td&gt;zhangjc@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;毛玮琳&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18721786793&lt;/td&gt;&lt;td&gt;18721786793&lt;/td&gt;&lt;td&gt;mwl@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;北京&lt;/td&gt;&lt;td&gt;李杨&lt;/td&gt;&lt;td&gt;北京销售主管&lt;/td&gt;&lt;td&gt;18601139362&lt;/td&gt;&lt;td&gt;18601139362&lt;/td&gt;&lt;td&gt;yfly@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张岚&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18601241803&lt;/td&gt;&lt;td&gt;18601241803&lt;/td&gt;&lt;td&gt;zhanglan@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;姚航&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15652026677&lt;/td&gt;&lt;td&gt;15652026677&lt;/td&gt;&lt;td&gt;yhang@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;杨薇&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15652285702&lt;/td&gt;&lt;td&gt;15652285702&lt;/td&gt;&lt;td&gt;yangwei@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;王宇飞&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18500981866&lt;/td&gt;&lt;td&gt;18500981866&lt;/td&gt;&lt;td&gt;wangyuf@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;王一菲&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18040060359&lt;/td&gt;&lt;td&gt;18040060359&lt;/td&gt;&lt;td&gt;wyf@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;&lt;/td&gt;&lt;td&gt;张鑫&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15981953220&lt;/td&gt;&lt;td&gt;15981953220&lt;/td&gt;&lt;td&gt;zhxin@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;马冰竹&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;13126590325&lt;/td&gt;&lt;td&gt;13126590325&lt;/td&gt;&lt;td&gt;mbz@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;刘艳&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18456565475&lt;/td&gt;&lt;td&gt;18456565475&lt;/td&gt;&lt;td&gt;liuyanyj@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;广深&lt;/td&gt;&lt;td&gt;龚之涵&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15808001926&lt;/td&gt;&lt;td&gt;15808001926&lt;/td&gt;&lt;td&gt;gongzh@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;唐茜露&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18680348593&lt;/td&gt;&lt;td&gt;18680348593&lt;/td&gt;&lt;td&gt;txl@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;文柳茜&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;13750028702&lt;/td&gt;&lt;td&gt;13750028702&lt;/td&gt;&lt;td&gt;wlq@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;林哲睿&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15602268757&lt;/td&gt;&lt;td&gt;15602268757&lt;/td&gt;&lt;td&gt;lzr@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t># 【点评报告】
+# 量化看市场系列之四：使用“OpenClaw”搭建属于自己的私域 AI助理
+#  摘要
+OpenClaw（曾用名 ClawdBot、Moltbot）是一款由程序员 Peter Steinberger 开发的开源 AI 智能体项目，其图标为龙虾形象，该项目曾用名 Clawdbot，因商标争议于 2026年 $^ { 1 }$ 月 27日更名为 Moltbot，其定位为具备长期记忆与软件操作能力的个人 $\mathbf { A I }$ 代理。它如同数字管家，可帮助用户完成处理邮件、编写代码、发布社交媒体、自动购物等一系列任务。截至本研报发布前，其最新更名为 OpenClaw。
+该项目于 2026年 $^ { 1 }$ 月发布，发布后迅速在 GitHub 上获得关注，截至同年 $^ { 1 }$ 月26 日，星标数量已增至 20.7k。OpenClaw 对本地硬件环境友好，支持部署在Mac、Windows、树莓派等设备上，大部分用户会选择使用 Mac $\mathrm { m i n i }$ 等设备运行。
+与常见的云端大模型不同，OpenClaw 完全运行于本地，拥有与用户等同的系统权限。用户可通过聊天软件发送自然语言指令，OpenClaw 将在后台调用终端、编写脚本或安装所需工具以执行任务。目前已支持国内外多款主流聊天 IM平台，包括钉钉、QQ、飞书、WhatsApp、Telegram、Discord、iMessage 等。
+此外，OpenClaw 支持接入包括 Claude、GPT、Gemini、DeepSeek、xAI、Perplexity、千问等在内的多种全球顶尖 AI 模型，并具备持久化记忆能力，能够长期记忆用户的工作习惯与项目细节。还具有自我进化特性：当用户提供新的 API文档或操作逻辑时，它能学习并内化为永久技能。
+由于 OpenClaw是直接操作本地操作系统，我们强烈建议不要在您使用的主力计算机上安装使用，可以选择新的电脑或者云电脑。像阿里云、腾讯云都已经提供了相应的产品。本报告采用阿里云下的无影云为例，说明下如何在一台非主力计算机上安装与部署 OpenClaw。
+目前 IM 国内支持钉钉、QQ 与飞书通道。
+更多的 OpenClaw 应用方法与落地方案详情，请联系我们或者对口销售获取。
+# 风险提示：
+OpenClaw 模型权限极高，有误操作删除文件的风险，建议采用云电脑方式部署。
+# 华创证券研究所
+证券分析师：王小川
+邮箱：wangxiaochuan@hcyjs.com
+执业编号：S0360517100001
+# 相关研究报告
+《量化看市场系列之一：黄金大跌后的走势演绎》2025-10-31
+《金融工程 10月主动选股》2025-10-09
+《形态学研究之十六：形态学在 ETF轮动上的研究（全市场版）》2025-07-16
+《形态学研究之十五：形态学在 ETF轮动上的研究》2025-04-24
+《形态学研究之十四：形态学在行业轮动上的研究》2025-03-02
+# 目 录
+# 一、OpenClaw 的前世今生.
+# 二、OpenClaw 的部署..
+（一）登录企业无影云电脑网页版，点击无影商城购买 OpenClaw 套餐  
+（二）配置 OpenClaw 环境.  
+（三）选择IM软件接入 6  
+（四）更多创新应用 11
+# 三、OpenClaw 使用上需要注意的问题与思考. 11
+# 四、风险提示.. 12
+# 图表目录
+图表 1 OpenClaw 与云端大模型区别与对比 4  
+图表 2 阿里云云电脑企业板页面 5  
+图表 3 阿里云百炼模型API获取页面. 6  
+图表 4 OpenClaw 配置页面. 6  
+图表 5 配置中的通道设置. 6  
+图表 6 钉钉开发者平台-创建应用  
+图表 7 获取 Client ID 和 Client Secret 8  
+图表 8 配置钉钉通道 8  
+图表 9 配置钉钉机器人 9  
+图表 10 群搜索机器人后添加 9  
+图表 11 与钉钉机器人私聊互动. 10
+在过往的量化报告中，我们或运用多种指标对个股、指数及 ETF进行择时判断，或从形态视角对不同类别资产展开分析，并基于此构建配套的量化产品，供客户参考使用。《量化看市场》系列报告致力于进一步拓展量化方法在市场研究中的应用：或围绕市场热点提供量化视角的解读，或分享原创性的思考结论，以此实现从提供产品策略到直接输出观点的转变，从而更高效地辅助投资决策。本系列报告所涉及的相关模型，我们将在 https://xingtai.pro/opinion 网站持续更新专题内容与最新研判，欢迎访问。
+# 一、OpenClaw 的前世今生
+OpenClaw（曾用名 ClawdBot、Moltbot）是一款由程序员 Peter Steinberger 开发的开源AI智能体项目，其图标为龙虾形象，该项目曾用名Clawdbot，因商标争议于2026年1月27日更名为 Moltbot，其定位为具备长期记忆与软件操作能力的个人 AI代理。它如同数字管家，可帮助用户完成处理邮件、编写代码、发布社交媒体、自动购物等一系列任务。截止本研报发布前，其最新更名为 OpenClaw。
+该项目于 2026年1月发布，发布后迅速在 GitHub上获得关注，截至同年 1月26日，星标数量已增至 20.7k。OpenClaw对本地硬件环境友好，支持部署在 Mac、Windows、树莓派等设备上，大部分用户会选择使用 Mac mini等设备运行。
+与常见的云端大模型不同，OpenClaw 完全运行于本地，拥有与用户等同的系统权限。用户可通过聊天软件发送自然语言指令，OpenClaw 将在后台调用终端、编写脚本或安装所需工具以执行任务。目前已支持国内外多款主流聊天 IM平台，包括钉钉、QQ、飞书、WhatsApp、Telegram、Discord、iMessage 等。
+此外，OpenClaw 支持接入包括 Claude、GPT、Gemini、DeepSeek、xAI、Perplexity、千问等在内的多种全球顶尖 AI模型，并具备持久化记忆能力，能够长期记忆用户的工作习惯与项目细节。还具有自我进化特性：当用户提供新的API文档或操作逻辑时，它能学习并内化为永久技能。
+很多人会问，已经有了云端大模型了，为什么还需要用OpenClaw，简单来说，OpenClaw 和云端大模型的根本区别在于“大脑”在哪里，以及“手”是否存在。
+图表 1 OpenClaw 与云端大模型区别与对比  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;特征维度&lt;/td&gt;&lt;td&gt;OpenClaw&lt;/td&gt;&lt;td&gt;云端大模型（如ChatGPT、Claude）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;部署位置&lt;/td&gt;&lt;td&gt;本地&lt;/td&gt;&lt;td&gt;远程云端&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;系统权限&lt;/td&gt;&lt;td&gt;高，拥有与用户同等级的操作权限&lt;/td&gt;&lt;td&gt;无，仅限纯文本对话，最多可以在本地生成一些基础代码与文件&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;核心能力&lt;/td&gt;&lt;td&gt;AI驱动的系统自动化执行&lt;/td&gt;&lt;td&gt;高级文本生成与对话&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;数据隐私&lt;/td&gt;&lt;td&gt;极高，所有数据与操作均在本地&lt;/td&gt;&lt;td&gt;依赖服务商政策，数据需上传至云端&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;工作模式&lt;/td&gt;&lt;td&gt;接收指令→自主调用本地工具（终端、脚本）完成任务&lt;/td&gt;&lt;td&gt;接收提示→生成文本或代码作为回复&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;硬件依赖&lt;/td&gt;&lt;td&gt;需要本地计算资源，对配置有一定要求&lt;/td&gt;&lt;td&gt;只需网络和终端设备，对本地硬件无要求&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;记忆能力&lt;/td&gt;&lt;td&gt;长期、持久的本地记忆，可记住习惯与项目细节&lt;/td&gt;&lt;td&gt;会话内短期记忆（或需手动开启的有限长期记忆）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;模型接入&lt;/td&gt;&lt;td&gt;灵活可配，可本地部署模型或选择性接入多种云端API&lt;/td&gt;&lt;td&gt;固定，通常只能使用服务商提供的单一或系列模型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;可进化性&lt;/td&gt;&lt;td&gt;强，可通过学习新文档、逻辑内化为永久技能&lt;/td&gt;&lt;td&gt;弱或无法实现，用户无法直接教其新技能&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;典型成本&lt;/td&gt;&lt;td&gt;一次性硬件投入与可能的API调用费&lt;/td&gt;&lt;td&gt;持续的订阅费或按使用量付费&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：华创证券
+总而言之：云端大模型 像是一位无所不知的远程顾问。你向它描述问题，它给你提供方案和草稿，但执行需要你自己动手。OpenClaw 像是一位驻扎在你家的专业助理。你只需说出目标，它会直接使用你的工具、查阅你的档案，并亲自把事情办妥，同时不断学习你的偏好，把事情做得越来越好。
+# 二、OpenClaw 的部署
+由于 OpenClaw 是直接操作本地操作系统，我们强烈建议不要在您使用的主力计算机上安装使用，可以选择新的电脑或者云电脑。像阿里云、腾讯云都已经提供了相应的产品。本报告采用阿里云下的企业版无影云为例，说明下如何在一台非主力计算机上安装与部署 OpenClaw。
+# （一）登录企业无影云电脑网页版，点击无影商城购买 OpenClaw 套餐
+如果您需要使用 OpenClaw的网页爬取功能，需要使用 brave插件，我们建议您选择无影云的区域为美国（弗吉尼亚），如果不需要则选国内。阿里云中的无影云电脑可以直接选择OpenClaw镜像，可以很快建立服务，在阿里云的工作台轻松配置云电脑。企业板无影云，需要建立与添加用户。
+图表 2 阿里云云电脑企业板页面  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;云电脑详情&lt;/td&gt;&lt;td&gt;快照列表&lt;/td&gt;&lt;td&gt;远程命令&lt;/td&gt;&lt;td&gt;定时任务&lt;/td&gt;&lt;td&gt;性能监控&lt;/td&gt;&lt;td&gt;时长监控&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="8"&gt;基本信息&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;云电脑名称&lt;/td&gt;&lt;td colspan="5"&gt;hgsz2003 编辑&lt;/td&gt;&lt;td&gt;云电脑 ID&lt;/td&gt;&lt;td&gt;ecd-1phoezxqc9yotb5y3 复制&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;状态&lt;/td&gt;&lt;td colspan="5"&gt;;;等待中18% 开机 关机 重启 释放&lt;/td&gt;&lt;td&gt;规格&lt;/td&gt;&lt;td&gt;通用办公型-4vCPU/16GiB内存 更改云电脑规格&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;系统&lt;/td&gt;&lt;td colspan="5"&gt;Ubuntu 2204&lt;/td&gt;&lt;td&gt;购买方式&lt;/td&gt;&lt;td&gt;按月购买 转化付费模式&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;系统盘/数据盘容量&lt;/td&gt;&lt;td colspan="5"&gt;60GiB / 40GiB 磁盘扩容&lt;/td&gt;&lt;td&gt;数据加密&lt;/td&gt;&lt;td&gt;未加密&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;创建时间&lt;/td&gt;&lt;td colspan="5"&gt;2026年2月2日 15:02:00&lt;/td&gt;&lt;td&gt;云电脑主机名称&lt;/td&gt;&lt;td&gt;hoexzqc9yotb5y3 编辑&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="8"&gt;其它信息&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;策略名称/ID&lt;/td&gt;&lt;td colspan="5"&gt;All enabled policy / system-all-enabled-policy 更改云电脑策略&lt;/td&gt;&lt;td&gt;自定义快照策略名称/ID&lt;/td&gt;&lt;td&gt;暂未关联 更改自动快照策略&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;镜像名称/ID&lt;/td&gt;&lt;td colspan="5"&gt;Moltbot(Clawdbot) / imgc-Oae8jvk4tzatayay 复制 变更镜像&lt;/td&gt;&lt;td&gt;镜像版本号&lt;/td&gt;&lt;td&gt;2.4.0-R-20250603.041033&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;资源组&lt;/td&gt;&lt;td colspan="5"&gt;-&lt;/td&gt;&lt;td&gt;标签&lt;/td&gt;&lt;td&gt;暂无标签 编辑&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="8"&gt;网络信息&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;办公网络名称&lt;/td&gt;&lt;td colspan="5"&gt;default&lt;/td&gt;&lt;td&gt;办公网络 ID&lt;/td&gt;&lt;td&gt;us-east-1+dir-0627981305 复制 迁移办公网络&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;办公网络类型&lt;/td&gt;&lt;td colspan="5"&gt;基础办公网络&lt;/td&gt;&lt;td&gt;私网 IP&lt;/td&gt;&lt;td&gt;10.0.96.244&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：阿里云、华创证券
+# （二）配置 OpenClaw 环境
+在阿里云百炼大模型服务平台前往密钥管理页面，单击创建API-Key。注意：请妥善保管百炼API-Key。若发生泄露，第三方将有机会冒用您的身份进行恶意使用，产生超出预期的 token费用。为了在体验初期避免产生超出预期的费用，可以使用 Coding Plan订阅，每 5小时可调用指定额度，超出后自动禁用。
+图表 3 阿里云百炼模型API获取页面  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="3"&gt;密钥管理&lt;/td&gt;&lt;td&gt;API-Key&lt;/td&gt;&lt;td&gt;KMS管理&lt;/td&gt;&lt;td&gt;使用指南&lt;/td&gt;&lt;td&gt;+ 创建API Key (1/20)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;ID&lt;/td&gt;&lt;td&gt;API Key&lt;/td&gt;&lt;td&gt;归属账号&lt;/td&gt;&lt;td&gt;创建时间&lt;/td&gt;&lt;td&gt;描述&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;操作&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3251376&lt;/td&gt;&lt;td&gt;sk-2***aa12&lt;/td&gt;&lt;td&gt;1705999565786320&lt;/td&gt;&lt;td&gt;2026-01-29 12:38:49&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;编辑 删除&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：阿里云、华创证券
+图表 4 OpenClaw 配置页面  
+![](images/e57bd2525fbf5f617a838e965269f33930cfc6160af074a9c01d02ba733a0a2e.jpg)  
+资料来源：阿里云、华创证券
+# （三）选择 IM软件接入
+图表 5 配置中的通道设置  
+![](images/581d1cf62bb982df3e6ee9fef8038bba1529fc941e515e12d41ce346ed6af48c.jpg)  
+资料来源：阿里云、华创证券
+在通道设置中，选择对应的 IM进行接入，因镜像已经封装实现了对应的接入功能，只需配置对应的密钥即可，无需进行额外的开发部署工作。目前支持钉钉、QQ与飞书通道。
+下面以钉钉接入为例，讲讲下如何通过钉钉应用与机器人，实现用户与机器人对话，驱动OpenClaw完成相关任务。接入主要经过以下步骤：
+ 创建钉钉应用并与云电脑系统OpenClaw进行安全凭证对接。  
+ 创建并接入钉钉机器人实现与用户的实时交互响应。
+创建钉钉应用需要您的钉钉账号有开发者权限。可以联系组织管理员获取钉钉开放平台的开发权限。
+1 登录钉钉开放平台 https://open-dev.dingtalk.com/，点击应用开发。  
+2 在应用开发页面左侧导航栏选择钉钉应用，然后点击创建应用。  
+3填写应用名称和应用描述（可选），设置应用图标，完成后点击保存。
+图表 6 钉钉开发者平台-创建应用  
+![](images/4bc249b247f2cb51374a7622db06a24b341aa9c19eb1a0d36fb16f32e4e98f98.jpg)  
+资料来源：钉钉、华创证券
+查看应用 Client ID 和 Client Secret
+在左侧菜单选择凭证与基础信息。
+复制 Client ID 和 Client Secret。
+图表 7 获取 Client ID 和 Client Secret  
+![](images/a9b947a4728b2196a1291fe8c8a1558838d6b598b43142fa1c4047fc67e27aa8.jpg)  
+资料来源：钉钉、华创证券
+返回云电脑，将 Client ID 复制到 APP KEY 文本框，Client Secret 复制到 APP SECRET文本框。配置完成后需点击保存配置。
+图表 8 配置钉钉通道  
+![](images/e9ebe426dd35b504329b3c249b383c34dfcde58096290ec48a5be042f7149438.jpg)  
+资料来源：钉钉、华创证券
+# 添加机器人能力
+访问钉钉应用列表，找到刚才创建的应用，点击应用名称进入详情页面；
+在添加应用能力页面，找到机器人卡片点击添加；
+开启机器人配置，接收模式选择 Stream模式，完成其他配置并点击发布。
+图表 9 配置钉钉机器人  
+![](images/dd55fd416d2015afb3e95306d7e04b827c53dbf8276185f3acea4460ae06298e.jpg)  
+资料来源：钉钉、华创证券
+# 发布应用版本
+应用创建完成后，如果需要将应用供企业内其他用户使用，需要发布应用版本。
+点击应用开发，在钉钉应用页面，选择目标应用。
+在左侧导航栏选择版本管理与发布，在版本管理与发布页面点击创建新版本。
+在版本详情页面，输入应用版本号和版本描述，选择合适的应用可见范围，完成后点击保存。并在弹窗中点击确认发布。
+# 配置钉钉机器人
+测试机器人
+可以创建群聊或在已有群聊中添加机器人，并与机器人对话验证机器人效果。
+在钉钉的搜索栏中，输入机器人名称后，在功能页签可以检索到对应机器人；
+就可以直接对话了。
+图表 10 群搜索机器人后添加  
+![](images/0e3946369734e683ba5ae617603f5b10c93c33d627ae3f4300c9a68d58290dc4.jpg)  
+资料来源：钉钉、华创证券
+在钉钉群中或私聊时@机器人进行交流互动，也可以对话中命令 AI 读取云电脑中的各种文件进行学习与总结。
+![](images/5b3a410a36b0879ea439a929d5d87b6e60a388a4cc4a28af107bf2dd769c7b79.jpg)  
+图表 11 与钉钉机器人私聊互动
+华创金工 HC Quant
+首页
+研究方向
+团队介绍
+研究成果
+联系我们
+# 华创金工-量化投资与金融工程
+了解我们的研究
+# 主要研究方向
+![](images/594380cad54d31c66c62e529b298c288cec97483a799a73135087452374053a5.jpg)
+了解更多→
+# 风险管理
+了解更多→
+# 资产配置
+了解更多→
+![](images/850c909fab680e626d17d8bff34cb528a1dd062c626b71e1e18f19131cbc57a0.jpg)
+# 人工智能应用
+了解更多→
+# 衍生品定价
+了解更多→
+# ESG投资
+了解更多→
+华创金工
+领先的量化投资与金融工程研究团队
+致力于推动金融科技的创新发展
+快速链接
+首页
+研究方向
+团队介绍
+研究成果
+# 联系方式
+邮箱：contact@hcquant.com
+电话：+86021-xXXX-XXXX
+地址：上海市浦东新区陆家嘴
+@2026华创金工保留所有权利
+资料来源：钉钉、华创证券
+# （四）更多创新应用
+我们不必过度关注少数极客的高阶玩法。对我们而言，真正重要的突破在于——让这些工具变得更自然、更贴合人性，让每个人都能轻松使用，那才是推动变革的核心力量。
+目前，OpenClaw 已经实现了一系列基础而实用的功能，例如：
+ 智能检查、发送与回复邮件  
+ 灵活处理各类文件  
+ 远程编程并实时分享协作  
+ 支持用户基于自有知识库构建个人专属智能助理  
+ 对接财经软件接口，轻松完成投资复盘  
+ 协助规划每日任务，高效管理时间
+在 OpenClaw 市场中，你可以按需安装各类功能插件，让工具更贴合你的使用场景。
+若想了解更多实际应用灵感，也欢迎访问 OpenClaw 官网，看看其他用户是如何将智能融入工作与生活的：https://openclaw.ai/showcase
+# 三、OpenClaw 使用上需要注意的问题与思考
+我们认为：用户应当以“老板”的身份，将 OpenClaw 视为自己的得力助理，规划并交付助理可以胜任的任务。这样既能避免对私域 AI 不切实际的高要求，也能充分发挥OpenClaw 的算力与功能潜力。目前所有任务均通过云电脑实现，确保能力稳定、弹性可用。
+在私域 AI 能力的构建上，我们建议重点发展以下方向：
+首先必须明确，大模型是 OpenClaw 的智能基石。我们支持多种主流模型，您可在配置页面灵活接入。为帮助用户高效利用，我们推荐聚焦以下四种核心能力：
+#  技能封装能力
+将日常流程化工作固化为可复用的技能，既方便自己执行，也支持与他人分享。
+#  脚本执行能力
+支持编写代码、调用API，实现诸如文件处理、机票预订（需相应API）、数据库查询、借助 Wind接口生成日报周报等自动化任务。
+#  网页交互能力
+可自动浏览网页、提取信息、进行页面操作，适用于定期数据采集、信息监控等场景。
+#  智能对话与记忆能力
+OpenClaw 具备长期记忆，能够学习您的偏好与历史对话，提供更个性化的交互体验——这是公有云模型难以实现的私域优势。
+需要特别说明的是，OpenClaw 拥有直接操作用户电脑的较高权限。出于安全考虑，我们强烈建议通过云电脑配置运行，构建类似沙盒的隔离环境。云电脑服务具有以下优势：
+ 不依赖本地硬件与网络，避免因关机、休眠、断网或网络切换导致服务中断；  
+ 释放本地资源，任务再多也不卡顿；  
+ 无需承担硬件升级成本，灵活弹性，且具备更高的安全可控性。
+如您希望深入了解 OpenClaw 的更多应用场景与落地方案，欢迎联系我们的团队或对口销售获取详细资料。
+# 四、风险提示
+OpenClaw 模型权限极高，有误操作删除文件的风险，建议采用云电脑方式部署。
+# 金融工程组团队介绍
+# 组长、首席分析师：王小川
+同济大学管理学博士。2017年加入华创证券研究所。
+# 研究员：洪远
+华南理工大学金融硕士。2023年加入华创证券研究所。
+# 助理研究员：刘依凡
+上海财经大学金融统计博士。2024年加入华创证券研究所。
+华创证券机构销售通讯录  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;地区&lt;/td&gt;&lt;td&gt;姓名&lt;/td&gt;&lt;td&gt;职务&lt;/td&gt;&lt;td&gt;办公电话&lt;/td&gt;&lt;td&gt;企业邮箱&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="10"&gt;北京机构销售部&lt;/td&gt;&lt;td&gt;张昱洁&lt;/td&gt;&lt;td&gt;副总经理、北京机构销售总监&lt;/td&gt;&lt;td&gt;010-63214682&lt;/td&gt;&lt;td&gt;zhangyujie@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张菲菲&lt;/td&gt;&lt;td&gt;北京机构副总监&lt;/td&gt;&lt;td&gt;010-63214682&lt;/td&gt;&lt;td&gt;zhangfeifei@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张婷&lt;/td&gt;&lt;td&gt;北京机构销售副总监&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;zhangting3@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;刘懿&lt;/td&gt;&lt;td&gt;副总监&lt;/td&gt;&lt;td&gt;010-63214682&lt;/td&gt;&lt;td&gt;liuyi@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;侯春钰&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;010-63214682&lt;/td&gt;&lt;td&gt;houchunyu@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;顾翎蓝&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;010-63214682&lt;/td&gt;&lt;td&gt;gulinglan@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;刘颖&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;010-66500821&lt;/td&gt;&lt;td&gt;liuying5@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;阎星宇&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;yanxingyu@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;车一哲&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;cheyizhe@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;吴昱颖&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;wuyuying@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="9"&gt;深圳机构销售部&lt;/td&gt;&lt;td&gt;张娟&lt;/td&gt;&lt;td&gt;副总经理、深圳机构销售总监&lt;/td&gt;&lt;td&gt;0755-82828570&lt;/td&gt;&lt;td&gt;zhangjuan@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张嘉慧&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;0755-82756804&lt;/td&gt;&lt;td&gt;zhangjiahui1@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;王春丽&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;0755-82871425&lt;/td&gt;&lt;td&gt;wangchunli@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;王越&lt;/td&gt;&lt;td&gt;高级销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;wangyue5@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汪丽燕&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;0755-83715428&lt;/td&gt;&lt;td&gt;wangliyan@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;温雅迪&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;wenyadi@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胡丁琳&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;hudinglin@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;付雅琦&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;fuyaqi@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;许馨匀&lt;/td&gt;&lt;td&gt;销售助理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;xuxinyun@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="14"&gt;上海机构销售部&lt;/td&gt;&lt;td&gt;许彩霞&lt;/td&gt;&lt;td&gt;总经理助理、上海机构销售总监&lt;/td&gt;&lt;td&gt;021-20572536&lt;/td&gt;&lt;td&gt;xucaixia@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;祁继春&lt;/td&gt;&lt;td&gt;上海机构销售副总监&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;qijichun@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;黄畅&lt;/td&gt;&lt;td&gt;上海机构销售副总监&lt;/td&gt;&lt;td&gt;021-20572257-2552&lt;/td&gt;&lt;td&gt;huangchang@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;吴俊&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;021-20572506&lt;/td&gt;&lt;td&gt;wujun1@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张佳妮&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;021-20572585&lt;/td&gt;&lt;td&gt;zhangjiani@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;郭静怡&lt;/td&gt;&lt;td&gt;高级销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;guojingyi@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;蒋瑜&lt;/td&gt;&lt;td&gt;高级销售经理&lt;/td&gt;&lt;td&gt;021-20572509&lt;/td&gt;&lt;td&gt;jiangyu@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;吴菲阳&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;wufeiyang@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;朱涨雨&lt;/td&gt;&lt;td&gt;高级销售经理&lt;/td&gt;&lt;td&gt;021-20572573&lt;/td&gt;&lt;td&gt;zhuzhangyu@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;李凯月&lt;/td&gt;&lt;td&gt;高级销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;likaiyue@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张豫蜀&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;15301633144&lt;/td&gt;&lt;td&gt;zhangyushu@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张玉恒&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;zhangyuheng@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;刘雯&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;liuwen@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;章依若&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;zhangyiruo@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;广州机构销售部&lt;/td&gt;&lt;td&gt;段佳音&lt;/td&gt;&lt;td&gt;广州机构销售总监&lt;/td&gt;&lt;td&gt;0755-82756805&lt;/td&gt;&lt;td&gt;duanjiayin@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;王世韬&lt;/td&gt;&lt;td&gt;高级销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;wangshitao1@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;私募销售组&lt;/td&gt;&lt;td&gt;潘亚琪&lt;/td&gt;&lt;td&gt;机构服务部总经理助理&lt;/td&gt;&lt;td&gt;021-20572559&lt;/td&gt;&lt;td&gt;panyaqi@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汪子阳&lt;/td&gt;&lt;td&gt;副总监&lt;/td&gt;&lt;td&gt;021-20572559&lt;/td&gt;&lt;td&gt;wangziyang@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;江赛专&lt;/td&gt;&lt;td&gt;副总监&lt;/td&gt;&lt;td&gt;0755-82756805&lt;/td&gt;&lt;td&gt;jiangsaizhuan@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汪戈&lt;/td&gt;&lt;td&gt;副总监&lt;/td&gt;&lt;td&gt;021-20572559&lt;/td&gt;&lt;td&gt;wangge@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;宋丹玛&lt;/td&gt;&lt;td&gt;高级销售经理&lt;/td&gt;&lt;td&gt;021-25072549&lt;/td&gt;&lt;td&gt;songdanyu@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赵毅&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;zhaoyi@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 华创行业公司投资评级体系
+# 基准指数说明：
+A股市场基准为沪深 300指数，香港市场基准为恒生指数，美国市场基准为标普 500/纳斯达克指数。
+# 公司投资评级说明：
+强推：预期未来 6个月内超越基准指数 $2 0 \%$ 以上；
+推荐：预期未来 6个月内超越基准指数 $1 0 \% - 2 0 \%$ ；
+中性：预期未来 6个月内相对基准指数变动幅度在 $- 1 0 \% - 1 0 \%$ 之间；
+回避：预期未来 6个月内相对基准指数跌幅在 $1 0 \% - 2 0 \%$ 之间。
+# 行业投资评级说明：
+推荐：预期未来 3-6个月内该行业指数涨幅超过基准指数 $5 \%$ 以上；
+中性：预期未来 3-6个月内该行业指数变动幅度相对基准指数 $- 5 \% - 5 \%$ ；
+回避：预期未来 3-6个月内该行业指数跌幅超过基准指数 $5 \%$ 以上。
+# 分析师声明
+每位负责撰写本研究报告全部或部分内容的分析师在此作以下声明：
+分析师在本报告中对所提及的证券或发行人发表的任何建议和观点均准确地反映了其个人对该证券或发行人的看法和判断；分析师对任何其他券商发布的所有可能存在雷同的研究报告不负有任何直接或者间接的可能责任。
+# 免责声明
+本报告仅供华创证券有限责任公司（以下简称“本公司”）的客户使用。本公司不会因接收人收到本报告而视其为客户。
+本报告所载资料的来源被认为是可靠的，但本公司不保证其准确性或完整性。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断。在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告。本公司在知晓范围内履行披露义务。
+报告中的内容和意见仅供参考，并不构成本公司对具体证券买卖的出价或询价。本报告所载信息不构成对所涉及证券的个人投资建议，也未考虑到个别客户特殊的投资目标、财务状况或需求。客户应考虑本报告中的任何意见或建议是否符合其特定状况，自主作出投资决策并自行承担投资风险，任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。本报告中提及的投资价格和价值以及这些投资带来的预期收入可能会波动。
+本报告版权仅为本公司所有，本公司对本报告保留一切权利。未经本公司事先书面许可，任何机构和个人不得以任何形式翻版、复制、发表、转发或引用本报告的任何部分。如征得本公司许可进行引用、刊发的，需在允许的范围内使用，并注明出处为“华创证券研究”，且不得对本报告进行任何有悖原意的引用、删节和修改。
+证券市场是一个风险无时不在的市场，请您务必对盈亏风险有清醒的认识，认真考虑是否进行证券交易。市场有风险，投资需谨慎。
+华创证券研究所  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;北京总部&lt;/td&gt;&lt;td&gt;广深分部&lt;/td&gt;&lt;td&gt;上海分部&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;地址：北京市西城区锦什坊街26号恒奥中心C座3A&lt;/td&gt;&lt;td&gt;地址：深圳市福田区香梅路1061号中投国际商务中心A座19楼&lt;/td&gt;&lt;td&gt;地址：上海市浦东新区花园石桥路33号花旗大厦12层&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;邮编：100033&lt;/td&gt;&lt;td&gt;邮编：518034&lt;/td&gt;&lt;td&gt;邮编：200120&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;传真：010-66500801&lt;/td&gt;&lt;td&gt;传真：0755-82027731&lt;/td&gt;&lt;td&gt;传真：021-20572500&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;会议室：010-66500900&lt;/td&gt;&lt;td&gt;会议室：0755-82828562&lt;/td&gt;&lt;td&gt;会议室：021-20572522&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t># 量化点评报告
+# 二月配置建议：关注美元流动性和情绪指标何时修复
+前期市场情绪过热且流动性过于充裕，联储偏鹰预期成为导火索引发大类资产迅速崩盘，短期避险情绪高涨，高不确定性环境下建议防御为主，后续密切跟踪美元流动性指数与情绪指标的修复信号。
+① 美元流动性急剧收紧，当前位于 $-60\%$ 的预警区间。当前在净流动性缩量情况下，上月联储预期引导信号急速转鹰，且公告意外信号显示偏紧，价格型变量全部为负，使得美元流动性指数于1月29日触发 $-60\%$ 的“极度收紧”预警信号。  
+② 恐慌情绪指标明显恶化，放大市场波动。监控全球市场（OFR FSI）、美国市场（Citi RAI）、中国市场（中国主权CDS）的不确定性和恐慌情绪，近期指标均明显上行，表明市场恐慌情绪加剧，投资风险增加。
+# 资产配置：A股胜率回落。
+①A股：中等赔率-中低胜率品种。基于ShillerERP和DRP的标准化数值等权计算A股赔率，截至1月底，A股赔率下行至-0.3倍标准差，位于中等水平；1月PMI数据超预期回落，叠加中国主权CDS指标上行，使得A股胜率跌至 $-6\%$
+② 债券：中低赔率-高胜率品种。近期债券赔率大幅回升，但仍处于-0.6倍标准差的中低水平；近期债券胜率指标由于经济数据较弱升至 $19\%$ ，处于高胜率水平。  
+③ 美股：极低赔率-低胜率品种。美股AIAE指标当前处于 $55\%$ 的历史最高点，位于2.4倍标准差水平，回撤风险仍然较高；美元流动性指数当前位于 $-60\%$ 的较低水平，美股失去流动性支撑，接近于2025Q1的状态，需警惕后续风险。
+风格配置：小盘+价值占优。小盘风格配置价值提升：小盘风格近期拥挤度大幅消化，呈现出“强趋势-低拥挤”的特征，配置价值有所修复；价值低波微观打分较高：当前价值和低波风格三标尺综合排名均位居前列，建议重点关注；质量风格趋势较弱：当前质量因子为高赔率-中等趋势-中等拥挤，配置价值下降，需等待其右侧趋势确认；动量成长拥挤度较高：横截面来看动量和成长因子拥挤度仍然较高，建议保持谨慎态度。
+行业配置：关注顺周期板块。仍处于“强趋势-低拥挤”象限的行业较少，多数为周期制造板块；当前电新和有色为拥挤度最高的行业，需警惕短期交易风险。综合行业的景气度-趋势-拥挤度判断框架来看，二月行业配置建议为：建材、汽车、机械、传媒、非银。
+风险提示：存在历史经验失效风险，以上结论均基于历史数据和统计模型的测算，如果未来市场环境发生明显改变，不排除模型失效的可能性。
+# 作者
+分析师 汪宜生
+执业证书编号：S0680525070003
+邮箱：wangyisheng@gszq.com
+分析师 刘富兵
+执业证书编号：S0680518030007
+邮箱：liufubing@gszq.com
+# 相关研究
+1、《量化周报：短期调整不足为惧》2026-02-01  
+2、《量化分析报告：择时雷达六面图：本周拥挤度指标明显弱化》2026-01-31  
+3、《量化周报：市场或已开启新一轮上涨》2026-01-25
+# 内容目录
+本期话题：关注美元流动性和情绪指标何时修复 3
+一、资产配置篇：A股胜率回落 6  
+二、风格配置篇：小盘+价值占优 8  
+三、行业配置篇：关注顺周期板块 11  
+四、赔率+胜率策略跟踪 ..... 12  
+风险提示 13
+# 图表目录
+图表1：美元流动性分项指标当前状态和总得分 3  
+图表2：美元流动性指数当前处于-60%的极端收紧区间 3  
+图表3：美元流动性不同区间资产表现 3  
+图表4：美元流动性分项指标近期走势 4  
+图表5：恐慌情绪指标当前状态 5  
+图表6：恐慌情绪指标近期均上行 5  
+图表7：A股赔率和沪深300走势  
+图表8：A股胜率与沪深300走势 6  
+图表9：债券赔率与7-10年国债走势  
+图表10：债券胜率与7-10年国债走势  
+图表11：美股AIAE与标普500走势  
+图表 12: 美联储流动性指数  
+图表13：小盘因子：中高赔率-中高趋势-低拥挤 8  
+图表 14: 价值因子：高赔率-中等趋势-低拥挤. 8  
+图表 15: 质量因子：高赔率-中等趋势-中等拥挤  
+图表16：成长因子：中低赔率-中高趋势-中高拥挤 9  
+图表17：风格赔率-趋势-拥挤度分析图谱 10  
+图表18：基于赔率、趋势和拥挤度的风格因子综合排名 10  
+图表 19: 基于趋势-景气度-拥挤度三维评价体系的行业轮动策略. 11  
+图表20：行业趋势-景气度-拥挤度分析图谱 11  
+图表21：赔率增强型策略跟踪 12  
+图表 22: 胜率增强型策略跟踪 ..... 13  
+图表23：赔率+胜率增强型策略跟踪 13
+# 本期话题：关注美元流动性和情绪指标何时修复
+前期市场情绪过热且流动性过于充裕，联储偏鹰预期成为导火索引发大类资产迅速崩盘，短期避险情绪高涨，高不确定性环境下建议防御为主，后续密切跟踪美元流动性指数与情绪指标的修复信号。
+① 美元流动性急剧收紧，当前位于 $-60\%$ 的预警区间。在专题报告《美联储流动性的量价解构与资产配置应用》中我们结合数量维度和价格维度构建了美联储流动性指数，当前在净流动性缩量情况下，上月联储预期引导信号急速转鹰，且公告意外信号显示偏紧，价格型变量全部为负，使得美元流动性指数于1月29日触发 $-60\%$ 的“极度收紧”预警信号。近几年在2020Q1、2022Q1~Q3、2025Q1同样触发过该信号，历史流动性极度收紧区间，除美元指数以外的各类资产，尤其美元资产和风险资产如全球权益、美债、大宗商品等收益均为负，几乎无一幸免。
+图表1：美元流动性分项指标当前状态和总得分  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;维度&lt;/td&gt;&lt;td&gt;指标&lt;/td&gt;&lt;td&gt;最新方向（正为宽松，负为收紧）&lt;/td&gt;&lt;td&gt;初始值本周变化&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;数量&lt;/td&gt;&lt;td&gt;净流动性&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;联储信用支持&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;价格&lt;/td&gt;&lt;td&gt;预期引导&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;市场隐含&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;公告意外&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;美元流动性指数总得分&lt;/td&gt;&lt;td&gt;-60%&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，Bloomberg，国盛证券研究所
+图表2：美元流动性指数当前处于 $-60\%$ 的极端收紧区间  
+![](images/59eb207335d871c9eaad6deef0dce2597c12c5d921a908095a34e11ee7af28fd.jpg)  
+资料来源：Wind，Bloomberg，国盛证券研究所
+图表3：美元流动性不同区间资产表现  
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;资产类别&lt;/td&gt;&lt;td rowspan="2"&gt;资产指数&lt;/td&gt;&lt;td colspan="5"&gt;美元流动性不同区间资产年化收益统计&lt;/td&gt;&lt;td rowspan="2"&gt;收益图示&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;[-1,-0.6]&lt;/td&gt;&lt;td&gt;[-0.4,-0.2]&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;[0.2,0.4]&lt;/td&gt;&lt;td&gt;[0.6,1]&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="9"&gt;全球权益&lt;/td&gt;&lt;td&gt;标普500&lt;/td&gt;&lt;td&gt;-14.2%&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;4.1%&lt;/td&gt;&lt;td&gt;15.5%&lt;/td&gt;&lt;td&gt;19.2%&lt;/td&gt;&lt;td&gt;- - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - -&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纳斯达克&lt;/td&gt;&lt;td&gt;-20.1%&lt;/td&gt;&lt;td&gt;2.2%&lt;/td&gt;&lt;td&gt;9.6%&lt;/td&gt;&lt;td&gt;22.2%&lt;/td&gt;&lt;td&gt;25.1%&lt;/td&gt;&lt;td&gt;- - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - -&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-10.7%&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;20.4%&lt;/td&gt;&lt;td&gt;4.1%&lt;/td&gt;&lt;td&gt;29.3%&lt;/td&gt;&lt;td&gt;- - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - 0.7%&lt;/td&gt;&lt;td&gt;- - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - -
+- - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - -
+- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;800收益&lt;/td&gt;&lt;td&gt;-10.7%&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;20.4%&lt;/td&gt;&lt;td&gt;4.1%&lt;/td&gt;&lt;td&gt;29.3%&lt;/td&gt;&lt;td&gt;- - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - 
+-9.5%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生指数&lt;/td&gt;&lt;td&gt;-1.0%&lt;/td&gt;&lt;td&gt;4.0%&lt;/td&gt;&lt;td&gt;12.5%&lt;/td&gt;&lt;td&gt;3.6%&lt;/td&gt;&lt;td&gt;19.0%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;-10.9%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;-3.8%&lt;/td&gt;&lt;td&gt;8.8%&lt;/td&gt;&lt;td&gt;17.8%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日经225&lt;/td&gt;&lt;td&gt;-1.0%&lt;/td&gt;&lt;td&gt;4.0%&lt;/td&gt;&lt;td&gt;12.5%&lt;/td&gt;&lt;td&gt;3.6%&lt;/td&gt;&lt;td&gt;19.0%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;-10.9%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;-3.8%&lt;/td&gt;&lt;td&gt;8.8%&lt;/td&gt;&lt;td&gt;17.8%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;欧元区STOXX 50&lt;/td&gt;&lt;td&gt;-10.9%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;-3.8%&lt;/td&gt;&lt;td&gt;8.8%&lt;/td&gt;&lt;td&gt;17.8%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;-14.6%&lt;/td&gt;&lt;td&gt;-0.4%&lt;/td&gt;&lt;td&gt;1.3%&lt;/td&gt;&lt;td&gt;12.4%&lt;/td&gt;&lt;td&gt;20.6%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MSCI全球&lt;/td&gt;&lt;td&gt;-14.6%&lt;/td&gt;&lt;td&gt;-0.4%&lt;/td&gt;&lt;td&gt;1.3%&lt;/td&gt;&lt;td&gt;12.4%&lt;/td&gt;&lt;td&gt;20.6%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;-16.9%&lt;/td&gt;&lt;td&gt;-6.8%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;10.8%&lt;/td&gt;&lt;td&gt;26.5%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MSCI EM&lt;/td&gt;&lt;td&gt;-16.9%&lt;/td&gt;&lt;td&gt;-6.8%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;10.8%&lt;/td&gt;&lt;td&gt;26.5%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;-16.9%&lt;/td&gt;&lt;td&gt;-6.8%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;10.8%&lt;/td&gt;&lt;td&gt;26.5%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;美债年以上美债&lt;/td&gt;&lt;td&gt;美国高收益债&lt;/td&gt;&lt;td&gt;-5.8%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;7.3%&lt;/td&gt;&lt;td&gt;9.0%&lt;/td&gt;&lt;td&gt;11.3%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;-6.5%&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;4.8%&lt;/td&gt;&lt;td&gt;4.6%&lt;/td&gt;&lt;td&gt;9.4%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美国投资级企业债&lt;/td&gt;&lt;td&gt;-6.5%&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;4.8%&lt;/td&gt;&lt;td&gt;4.6%&lt;/td&gt;&lt;td&gt;9.4%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;-6.5%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;13.4%&lt;/td&gt;&lt;td&gt;13.4%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;7-10年美债&lt;/td&gt;&lt;td&gt;-5.0%&lt;/td&gt;&lt;td&gt;3.1%&lt;/td&gt;&lt;td&gt;2.6%&lt;/td&gt;&lt;td&gt;3.0%&lt;/td&gt;&lt;td&gt;7.6%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;-1.0%&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;3.3%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1-3年美债&lt;/td&gt;&lt;td&gt;-1.0%&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;-1.7%&lt;/td&gt;&lt;td&gt;-1.7%&lt;/td&gt;&lt;td&gt;-6.7%&lt;/td&gt;&lt;td&gt;3.7%&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;-1.2%&lt;/td&gt;&lt;td&gt;-1.7%&lt;/td&gt;&lt;td&gt;-1.7%&lt;/td&gt;&lt;td&gt;-1.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美元&lt;/td&gt;&lt;td&gt;美元指数&lt;/td&gt;&lt;td&gt;6.7%&lt;/td&gt;&lt;td&gt;3.7%&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;-1.2%&lt;/td&gt;&lt;td&gt;-1.7%&lt;/td&gt;&lt;td&gt;-1.7%&lt;/td&gt;&lt;td&gt;-20.1%&lt;/td&gt;&lt;td&gt;-19.7%&lt;/td&gt;&lt;td&gt;16.9%&lt;/td&gt;&lt;td&gt;14.4%&lt;/td&gt;&lt;td&gt;9.9%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;商品&lt;/td&gt;&lt;td&gt;ICE布油&lt;/td&gt;&lt;td&gt;-20.1%&lt;/td&gt;&lt;td&gt;-19.7%&lt;/td&gt;&lt;td&gt;16.9%&lt;/td&gt;&lt;td&gt;14.4%&lt;/td&gt;&lt;td&gt;9.9%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;-0.7%&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;9.2%&lt;/td&gt;&lt;td&gt;10.0%&lt;/td&gt;&lt;td&gt;21.4%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;COMEX黄金&lt;/td&gt;&lt;td&gt;-0.7%&lt;/td&gt;&lt;td&gt;-1.9%&lt;/td&gt;&lt;td&gt;9.2%&lt;/td&gt;&lt;td&gt;10.0%&lt;/td&gt;&lt;td&gt;21.4%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;-6.4%&lt;/td&gt;&lt;td&gt;-6.5%&lt;/td&gt;&lt;td&gt;12.9%&lt;/td&gt;&lt;td&gt;9.4%&lt;/td&gt;&lt;td&gt;15.1%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;LME铜&lt;/td&gt;&lt;td&gt;-6.4%&lt;/td&gt;&lt;td&gt;-6.5%&lt;/td&gt;&lt;td&gt;12.9%&lt;/td&gt;&lt;td&gt;9.4%&lt;/td&gt;&lt;td&gt;15.1%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;-6.4%&lt;/td&gt;&lt;td&gt;-6.5%&lt;/td&gt;&lt;td&gt;12.9%&lt;/td&gt;&lt;td&gt;9.4%&lt;/td&gt;&lt;td&gt;15.1%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;另类&lt;/td&gt;&lt;td&gt;全球REITS&lt;/td&gt;&lt;td&gt;-9.3%&lt;/td&gt;&lt;td&gt;-3.6%&lt;/td&gt;&lt;td&gt;-2.7%&lt;/td&gt;&lt;td&gt;9.3%&lt;/td&gt;&lt;td&gt;22.6%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;-20.5%&lt;/td&gt;&lt;td&gt;71.6%&lt;/td&gt;&lt;td&gt;192.5%&lt;/td&gt;&lt;td&gt;213.2%&lt;/td&gt;&lt;td&gt;380.8%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;比特币&lt;/td&gt;&lt;td&gt;-20.5%&lt;/td&gt;&lt;td&gt;71.6%&lt;/td&gt;&lt;td&gt;192.5%&lt;/td&gt;&lt;td&gt;213.2%&lt;/td&gt;&lt;td&gt;380.8%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;-20.5%&lt;/td&gt;&lt;td&gt;71.6%&lt;/td&gt;&lt;td&gt;192.5%&lt;/td&gt;&lt;td&gt;213.2%&lt;/td&gt;&lt;td&gt;380.8%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;- - 0.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，Bloomberg，国盛证券研究所
+图表4：美元流动性分项指标近期走势  
+![](images/cb71c560c46421a55f9e496bcef4fd2b2895f7806741b6cdd75a7a9c9e166524.jpg)  
+资料来源：Wind，Bloomberg，国盛证券研究所
+② 恐慌情绪指标明显恶化，放大市场波动。在报告《贸易不确定性与全球恐慌交易程度的量化监测体系》中我们提供了三个指标，分别监控全球市场（OFR FSI）、美国市场（Citi RAI）、中国市场（中国主权CDS）的不确定性和恐慌情绪，近期指标均明显上行，表明市场恐慌情绪加剧，投资风险增加。
+图表5：恐慌情绪指标当前状态  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指标名称&lt;/td&gt;&lt;td&gt;最新数值&lt;/td&gt;&lt;td&gt;截至时间&lt;/td&gt;&lt;td colspan="2"&gt;周度变化 (上行表示情绪恶化)&lt;/td&gt;&lt;td colspan="2"&gt;月度变化 (上行表示情绪恶化)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;OFR金融压力指数 ( OFR FSI Index )&lt;/td&gt;&lt;td&gt;-2.4&lt;/td&gt;&lt;td&gt;2026/1/28&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;td&gt;0.3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;花旗风险厌恶指数 (Citi RAI Index )&lt;/td&gt;&lt;td&gt;25%&lt;/td&gt;&lt;td&gt;2026/1/30&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;td&gt;9.5%&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;td&gt;16.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中国主权CDS利差&lt;/td&gt;&lt;td&gt;43.9&lt;/td&gt;&lt;td&gt;2026/2/2&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;td&gt;2.1&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;td&gt;5.1&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，Bloomberg，国盛证券研究所
+图表6：恐慌情绪指标近期均上行  
+![](images/15b9ecc6a2f73e88cd44eb02669bb209b1f40226a2571fb8c3b1bb6dc00524de.jpg)  
+资料来源：Wind，Bloomberg，国盛证券研究所
+# 一、资产配置篇：A股胜率回落
+# ① A 股：中等赔率-中低胜率品种。
+- 基于ShillerERP和DRP的标准化数值等权计算A股赔率，截至1月底，A股赔率下行至-0.3倍标准差，位于中等水平。  
+在专题报告《构建大类资产的宏观胜率评分卡：货币、信用、增长、通胀与海外五因子》中我们设计了宏观胜率评分卡合成得到各资产综合胜率，1月PMI数据超预期回落，叠加中国主权CDS指标上行，使得A股胜率跌至 $-6\%$
+图表7：A股赔率和沪深300走势  
+![](images/cfe59b5464a0702304d0478120c69c153ef03d968f8d36ae1abebbbdaf8ed70d.jpg)  
+资料来源：Wind，国盛证券研究所
+图表8：A股胜率与沪深300走势  
+![](images/53c8a79bd9ceea63fb1d8d4f41604fde0a9511845192521347c26fa1cdcbf735.jpg)  
+资料来源：Wind，Bloomberg，国盛证券研究所
+# ② 债券：中低赔率-高胜率品种。
+根据专题报告《利率债收益预测框架》中的收益预测模型，我们根据长短债预期收益差构建了债券资产赔率指标，近期债券赔率大幅回升，但仍处于-0.6倍标准差的中低水平。  
+近期债券胜率指标由于经济数据较弱升至 $19\%$ ，处于高胜率水平。
+图表9：债券赔率与7-10年国债走势  
+![](images/7dfeda0a55f840a5688b012c5e7b65f7f2883c50a73853b8ec4c922464b54611.jpg)  
+资料来源：Wind，国盛证券研究所
+图表10：债券胜率与7-10年国债走势  
+![](images/1a5b47c3baf846ebe3b3804c78172aa6d97fa13dea5d447711c0a0f38d8484a3.jpg)  
+资料来源：Wind，Bloomberg，国盛证券研究所
+# ③ 美股：极低赔率-低胜率品种。
+美股AIAE指标当前处于 $55\%$ 的历史最高点，位于2.4倍标准差水平，回撤风险仍然较高，历史上该指标曾于2000年和2022年两次超过 $50\%$ 的高位，随后标普500分别经历了 $46\%$ 和 $25\%$ 的大幅回调。  
+- 基于前一小节中的美元流动性指数刻画美股胜率，当前位于 $-60\%$ 的较低水平，美股失去流动性支撑，接近于2025Q1的状态，需警惕后续风险。
+图表11：美股 AIAE 与标普 500 走势  
+![](images/6429d232c725dbf5e2de12458c442c4db01b4648f914a049347938f7d975a54a.jpg)  
+资料来源：Wind，国盛证券研究所
+图表12：美联储流动性指数  
+![](images/ed21c0fced170fe58cee5f590b1543be666c9c221cbe5f095c7372714511e5dd.jpg)  
+资料来源：Wind，Bloomberg，国盛证券研究所
+# 二、风格配置篇：小盘+价值占优
+① 小盘风格：综合评分最高，配置价值有所提升。从因子三标尺的角度来看，当前小盘因子的赔率处于0.6倍标准差（中高水平），趋势位于0.8倍标准差（中高水平），拥挤度回落至-1.4倍标准差（较低水平）。综合来看，小盘当前处于中高赔率-中高趋势-低拥挤的状态，综合得分为3.6。
+![](images/b2f7c6e2c58d4b76917d8fdb4fc94634fca23d726d1e9c864135541c8ecabae0.jpg)  
+图表13：小盘因子：中高赔率-中高趋势-低拥挤
+![](images/3a0453ac395c21bfd469667328337f5ce9785461a7d442fda3f834910382dd6b.jpg)  
+资料来源：Wind，国盛证券研究所
+② 价值风格：高赔率-中等趋势-低拥挤，综合得分较高。价值风格近期趋势位于0.3倍标准差，赔率位于1.1倍标准差，拥挤度处于-1.3倍标准差的较低水平，综合得分为3，相对其他因子评分较高，建议重点关注。
+![](images/9448b377b65a21d3970247581f96c5147ef40a9de90e5ebdd968ab7f3975b1aa.jpg)  
+图表14：价值因子：高赔率-中等趋势-低拥挤
+![](images/acc6f2c7f403122cf37792ebb67963b79b4203e4d78b575d6432995a0ea00807.jpg)  
+资料来源：Wind，国盛证券研究所
+③ 质量风格：趋势仍然较弱，需等待右侧确认时点。质量风格赔率当前位于1.2倍标准差，趋势和拥挤度位于-0.1倍标准差，当前质量风格综合得分为1，配置价值不高。
+![](images/220c104a3a7b4f3336362397e9b1fe96733631ff9d99cab3caab5c0989a1e240.jpg)  
+图表15：质量因子：高赔率-中等趋势-中等拥挤
+![](images/77994ab0ee43c871d87647421a005578681cb422d0c61380a27f4684af348596.jpg)  
+资料来源：Wind，国盛证券研究所
+④ 成长风格：综合得分不高。成长因子近期趋势回升至0.7倍标准差的中高水平，赔率位于-0.9倍标准差，拥挤度小幅回落至0.6倍标准差。综上，成长风格目前为中低赔率-中高趋势-中高拥挤的品种，综合得分回升至-1分。
+![](images/76b44ba0ee4952f6860cf0f11c6d47ea89936ab57652ac151f00aabc376d4254.jpg)  
+图表16：成长因子：中低赔率-中高趋势-中高拥挤
+![](images/5f7128d7abdc6b38e19a996fd42054ce4f396e81d06cd3d368e7612ac002763e.jpg)  
+资料来源：Wind，国盛证券研究所
+⑤ 当前A股风格配置建议。从下面的图表可以看到：
+1) 小盘风格配置价值提升：小盘风格近期拥挤度大幅消化，呈现出“强趋势-低拥挤”的特征，配置价值有所修复；  
+2）价值低波微观打分较高：当前价值和低波风格三标尺综合排名均位居前列，建议重点关注；  
+3) 质量风格趋势较弱：当前质量因子为高赔率-中等趋势-中等拥挤，配置价值下降，需等待其右侧趋势确认；  
+4) 动量成长拥挤度较高：横截面来看动量和成长因子拥挤度仍然较高，建议保持谨慎态度。
+图表17：风格赔率-趋势-拥挤度分析图谱  
+![](images/7543729f8cec8288dadbd26439475f0f67cff7ca42eed27d678be777bbe9404a.jpg)  
+资料来源：Wind，国盛证券研究所
+图表18：基于赔率、趋势和拥挤度的风格因子综合排名  
+![](images/66a80c340160b94a51c2ed6d9912a62a6d8dd084f5fb32ecb9faab05edcd9147.jpg)  
+资料来源：Wind，国盛证券研究所
+# 三、行业配置篇：关注顺周期板块
+行业景气度-趋势-拥挤度分析。在报告《行业轮动的三个标尺——因子投资2020（四）》中我们以行业过去12个月信息比率刻画行业动量和趋势，以行业的换手率比率、波动率比率和beta比率刻画行业的交易拥挤度。当前模型的最新观点为：
+- 热门行业分析：仍处于“强趋势-低拥挤”象限的行业较少，多数为周期制造板块；当前电新和有色为拥挤度最高的行业，需警惕短期交易风险。
+- 二月行业配置建议为：建材、汽车、机械、传媒、非银。
+图表19：基于趋势-景气度-拥挤度三维评价体系的行业轮动策略  
+![](images/786900b8a967ffbd7c01d633ce5e1d4c819763b2f89a2e544fd20240f420a281.jpg)  
+资料来源：Wind，国盛证券研究所
+图表20：行业趋势-景气度-拥挤度分析图谱  
+![](images/e787c1d0787c2ce39e83238eb53910faa6ac1cce0214f781ac98c1df66f4c1e0.jpg)  
+资料来源：Wind，国盛证券研究所
+# 四、赔率+胜率策略跟踪
+在报告《构建大类资产的宏观胜率评分卡：货币、信用、增长、通胀与海外五因子》中我们基于风险预算模型，分别提出了赔率增强型、胜率增强型以及赔率+胜率增强型策略，策略跟踪如下：
+① 赔率增强型策略跟踪。结合各资产的赔率指标，在目标波动率约束的条件下持续超配高赔率的资产，低配低赔率的资产，我们构建了固收+赔率增强型策略。固收+赔率增强型策略自2011年以来年化收益 $6.7\%$ ，最大回撤 $3.1\%$ ，2014年以来年化收益 $7.4\%$ ，最大回撤 $2.8\%$ ，2019年以来年化收益 $6.9\%$ ，最大回撤 $2.8\%$ 。固收+赔率增强型策略当前的配置建议为：泛权益类 $5.8\%$ 、黄金 $1.9\%$ 、债券 $92.3\%$ 。
+图表21：赔率增强型策略跟踪  
+![](images/4d3f5aaba0d38df85b070213379e319b4a295074d5db7744617cdfd0b78b3bb9.jpg)  
+资料来源：Wind，国盛证券研究所
+② 胜率增强型策略跟踪。从货币、信用、增长、通胀和海外五个因素出发，获得各资产的宏观胜率评分，与赔率增强型策略类似，我们构建了固收+胜率增强型策略。固收+胜率增强型策略自2011年以来年化收益 $7.1\%$ ，最大回撤 $3.4\%$ ，2014年以来年化收益 $8.0\%$ ，最大回撤 $2.2\%$ ，2019年以来年化收益 $6.9\%$ ，最大回撤 $1.5\%$ 。固收+胜率增强型策略当前的配置建议为：泛权益类 $5.1\%$ 、黄金 $0.8\%$ 、债券 $94.1\%$
+图表22：胜率增强型策略跟踪  
+![](images/0594248c99e96ea8068d8d61a0e654919cf3f91f03819d1f69673f5b4862a0d5.jpg)  
+资料来源：Wind，Bloomberg，国盛证券研究所
+③ 赔率+胜率策略跟踪。将赔率策略的风险预算和胜率策略的风险预算进行简单相加得到综合得分，据此我们构建了赔率+胜率策略。赔率+胜率策略自2011年以来年化收益6.7%，最大回撤2.9%，2014年以来年化收益7.3%，最大回撤2.3%，2019年以来年化收益6.4%，最大回撤2.3%。赔率+胜率策略当前的配置建议为：泛权益类5.2%、黄金1.2%、债券93.6%。
+图表23：赔率+胜率增强型策略跟踪  
+![](images/e4f5e607c01ff5f4c17ff07645584dd57ce662c08c26120fd42cf98548da9e2d.jpg)  
+资料来源：Wind，Bloomberg，国盛证券研究所
+# 风险提示
+存在历史经验失效风险，以上结论均基于历史数据和统计模型的测算，如果未来市场环境发生明显改变，不排除模型失效的可能性。
+# 免责声明
+国盛证券股份有限公司（以下简称“本公司”）具有中国证监会许可的证券投资咨询业务资格。本报告仅供本公司的客户使用。本公司不会因接收人收到本报告而视其为客户。在任何情况下，本公司不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任。
+本报告的信息均来源于本公司认为可信的公开资料，但本公司及其研究人员对该等信息的准确性及完整性不作任何保证。本报告中的资料、意见及预测仅反映本公司于发布本报告当日的判断，可能会随时调整。在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告。本公司不保证本报告所含信息及资料保持在最新状态，对本报告所含信息可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
+本公司力求报告内容客观、公正，但本报告所载的资料、工具、意见、信息及推测只提供给客户作参考之用，不构成任何投资、法律、会计或税务的最终操作建议，本公司不就报告中的内容对最终操作建议做出任何担保。本报告中所指的投资及服务可能不适合个别客户，不构成客户私人咨询建议。投资者应当充分考虑自身特定状况，并完整理解和使用本报告内容，不应视本报告为做出投资决策的唯一因素。
+投资者应注意，在法律许可的情况下，本公司及其本公司的关联机构可能会持有本报告中涉及的公司所发行的证券并进行交易，也可能为这些公司正在提供或争取提供投资银行、财务顾问和金融产品等各种金融服务。
+本报告版权归“国盛证券股份有限公司”所有。未经事先本公司书面授权，任何机构或个人不得对本报告进行任何形式的发布、复制。任何机构或个人如引用、刊发本报告，需注明出处为“国盛证券研究所”，且不得对本报告进行有悖原意的删节或修改。
+# 分析师声明
+本报告署名分析师在此声明：我们具有中国证券业协会授予的证券投资咨询执业资格或相当的专业胜任能力，本报告所表述的任何观点均精准地反映了我们对标的证券和发行人的个人看法，结论不受任何第三方的授意或影响。我们所得报酬的任何部分无论是在过去、现在及将来均不会与本报告中的具体投资建议或观点有直接或间接联系。
+投资评级说明  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;投资建议的评级标准&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;评级&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="7"&gt;评级标准为报告发布日后的6个月内公司股价（或行业指数）相对同期基准指数的相对市场表现。其中A股市场以沪深300指数为基准；新三板市场以三板成指（针对协议转让标的）或三板做市指数（针对做市转让标的）为基准；香港市场以摩根士丹利中国指数为基准，美股市场以标普500指数或纳斯达克综合指数为基准。&lt;/td&gt;&lt;td rowspan="4"&gt;股票评级&lt;/td&gt;&lt;td&gt;买入&lt;/td&gt;&lt;td&gt;相对同期基准指数涨幅在15%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;相对同期基准指数涨幅在5%~15%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;持有&lt;/td&gt;&lt;td&gt;相对同期基准指数涨幅在-5%~+5%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;相对同期基准指数跌幅在5%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业评级&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;相对同期基准指数涨幅在10%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;相对同期基准指数涨幅在-10%~+10% 之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;相对同期基准指数跌幅在10%以上&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 国盛证券研究所
+# 北京
+地址：北京市东城区永定门西滨河路8号院7楼中海地产广场东塔7层
+邮编：100077
+邮箱：gsresearch@gszq.com
+# 南昌
+地址：南昌市红谷滩新区凤凰中大道1115号北京银行大厦
+邮编：330038
+传真：0791-86281485
+邮箱：gsresearch@gszq.com
+# 上海
+地址：上海市浦东新区南洋泾路555号陆家嘴金融街区22栋
+邮编：200120
+电话：021-38124100
+邮箱：gsresearch@gszq.com
+# 深圳
+地址：深圳市福田区福华三路100号鼎和大厦24楼
+邮编：518033
+邮箱：gsresearch@gszq.com</t>
+  </si>
+  <si>
+    <t>金工le_Title] ETF点评：宽基 ETF 本周净流出3890.81 亿元；食饮、农林牧渔拥挤变幅较大
+[Table_Author] 证券分析师：刘晓锋
+电话：13401163428
+E-MAIL：liuxf@tpyzq.com
+执业资格证书编码：S1190522090001
+证券分析师：孙弋轩
+电话：18910596766
+E-MAIL：sunyixuan@tpyzq.com
+执业资格证书编码：S1190525080001
+# 内容摘要
+◼ ETF 市场概况：截至2026 年1月 30 日，内地全部上市 ETF 共计1419只，规模5.46 万亿。其中股票型 ETF、债券型 ETF、商品型 ETF、货币型 ETF、跨境 ETF的数量分别为 1111、53、17、27、211，规模分别为 3.23（万亿）、0.73、0.35、0.16、1.00。数量方面，股票型 ETF占比最大，达 $7 8 . 2 9 \%$ ；规模方面，股票型 ETF 占比亦最大，达 $5 9 . 1 1 \%$ 。
+◼ 海内外权益市场指数表现：本周 A股市场中上证指数收盘4117.95，涨跌幅- $. 0 . 4 4 \%$ ，深证成指、中小板指数、创业板指、上证50、沪深300、中证500、中证1000、中证2000、北证 50 涨跌幅分别为- $. 1 . 6 2 \%$ 、 $- 3 . 7 8 \%$ 、 $- 0 . 0 9 \%$ 、 $1 . 1 3 \%$ 、 $0 . 0 8 \%$ 、 $. 2 . 5 6 \%$ 、- $- 2 . 5 5 \%$ 、- $. 3 . 3 4 \%$ 、-$3 . 5 9 \%$ 。从细分行业来看，本周石化、通信、煤炭涨幅较大，分别录得 $7 . 9 5 \%$ 、 $5 . 8 3 \%$ 、 $3 . 6 8 \%$ ；军工、电力设备、汽车跌幅较大，分别达- $- 7 . 6 9 \%$ 、 $. 5 . 1 0 \%$ 、- $. 5 . 0 8 \%$ 。本周港股市场中恒生指数收盘 27387.11，涨跌幅为 $2 . 3 8 \%$ ，恒生中国企业指数收盘9317.09，涨跌幅为 $1 . 7 1 \%$ ，恒生科技指数收盘5718.18，涨跌幅- $. 1 . 3 8 \%$ 。本周美股市场中道琼斯工业指数、纳斯达克指数、标普 500 收盘分别为 48892.47、23461.82、6939.03，涨跌幅分别为- $. 0 . 4 2 \%$ 、 $. 0 . 1 7 \%$ 、 $0 . 3 4 \%$ 。
+股票类 ETF 资金流向：宽基 ETF 本周净流出 3890.81 亿元，其中，本周资金净流入TOP3：A500ETF 华泰柏瑞（ $_ { ( + 1 1 . 2 3 }$ 亿元）、双创龙头 ETF（ $_ { + 9 . 2 7 }$ 亿元）、上证指数 ETF（ $_ { ; + 5 . 4 2 }$ 亿元）；本周资金净流出 TOP3：沪深 300ETF 易方达（-747.27 亿元）、沪深 300ETF 华泰柏瑞（-742.00 亿元）、沪深 300ETF 华夏（-547.13 亿元）。行业主题 ETF 本周净流入 705.89 亿元，其中，本周资金净流入 TOP3：有色金属 ETF基金（ $\cdot + 6 4 . 5 5$ 亿元）、有色金属 ETF（ $+ 5 6 . 3 4$ 亿元）、化工 ETF（ $_ { + 4 0 . 1 2 }$ 亿元）；本周资金净流出 TOP3：科创 AIETF 博时（-11.31 亿元）、电池 ETF（-4.88亿元）、光伏 ETF（-4.70 亿元）。风格策略 ETF 本周净流入 17.38 亿元，其中，本周资金净流入 TOP3：自由现金流 ETF（ $_ { ( + 8 . 5 7 }$ 亿元）、红利低波 ETF 华泰柏瑞（ $_ { + 6 . 7 8 }$ 亿元）、现金流 ETF（ $_ { + 6 . 5 3 }$ 亿元）；本周资金净流出 TOP3：红利 ETF易方达（-4.82亿元）、红利国企 ETF 国泰（-4.37 亿元）、红利 ETF 华泰柏瑞（-3.50 亿元）。跨境 ETF 本周净流入12.44 亿元，其中，本周资金净流入 TOP3港股通非银 ETF（ $_ { + 1 7 . 9 7 }$ 亿元）、恒生科技 ETF天弘（ $_ { + 8 . 8 7 }$ 亿元）、亚太精选 ETF南方（ $_ { + 5 . 1 3 }$ 亿元）；本周资金净流出 TOP3：香港证券 ETF易方达（-11.06 亿元）、恒生 ETF（-4.37 亿元）、港股科技 50ETF（-3.72 亿元）。
+◼ 行业拥挤度监测：前一交易日有色、石油石化、农林牧渔、传媒靠前，相比较而言，汽车、家电、医药的拥挤度水平较低，建议关注。此外，食饮、农林牧渔本周拥挤度变动较大。
+◼ 风险提示：本报告结论完全基于公开历史数据，建议关注的行业指数与 ETF产品基于构建的量化模型，仅供大家参考阅读，不构成任何投资建议。
+# 内容目录
+一、 ETF 市场概况.. 4  
+二、 海内外权益市场指数表现 ..  
+三、 股票类 ETF 资金流向..  
+四、 行业拥挤度监测..  
+五、 ETF 产品关注信号... 13
+风险提示 ... 14
+# 图表目录
+图表 1 大类 ETF 数量情况（只） .4  
+图表 2 大类 ETF 规模情况（万亿） 4  
+图表 3 大类 ETF 数量占比 $( \%$ ）  
+图表 4 大类 ETF 规模占比（%）  
+图表 5 股票型细分 ETF 数量情况（只）  
+图表 6 股票型细分 ETF 规模情况（万亿）  
+图表 7A 股主要市场指数涨跌幅度..  
+图表 8A 股市场风格指数涨跌幅度..  
+图表 9A 股市场行业板块涨跌幅.  
+图表 10 港股市场主要指数涨跌幅. 8  
+图表 11 港股市场规模指数涨跌幅. .8  
+图表 12 港股市场行业板块涨跌幅. 8  
+图表 13 美国及其他地区主要市场指数涨跌幅. 9  
+图表 14 股票类 ETF 周度资金净流动 TOP3. .10  
+图表 15 股票类 ETF 周度资金净流动（亿元）  
+图表 16 行业拥挤度热力图（近 30个交易日） 12  
+图表 17 申万一级行业指数周度主力资金净流动（亿元） 13  
+图表 18ETF 产品关注信号.. .14
+# 一、ETF市场概况
+截至 2026 年 1 月 30 日，内地全部上市 ETF 共计 1419 只，规模5.46 万亿。其中股票型 ETF、债券型 ETF、商品型 ETF、货币型 ETF、跨境 ETF 的数量分别为 1111、53、17、27、211，规模分别为 3.23（万亿）、0.73、0.35、0.16、1.00。数量方面，股票型 ETF 占比最大，达$7 8 . 2 9 \%$ ；规模方面，股票型 ETF 占比亦最大，达 $5 9 . 1 1 \%$ 。
+从股票型 ETF 的细分来看，宽基 ETF、行业主题 ETF 以及风格策略 ETF 的数量分别为 372、616、123，规模分别为 1.66（万亿）、1.39、0.18。
+图表 1 大类ETF数量情况（只）  
+![](images/5e4e2d680658526cf807e9e741913a9b75316f5f82840c287574c0414786f2b1.jpg)  
+资料来源：Wind，太平洋研究院
+图表 2 大类 ETF规模情况（万亿）  
+![](images/dabd46a5a5c344b6ffba2a95f5aee88d38defe0b3aaa2f55d783f0f0cf57aced.jpg)  
+资源来源：Wind，太平洋研究院
+图表 3 大类ETF数量占比（%）  
+![](images/a2cdbbe2312ff8c095068b4889694118e2ce3f9619e1a05d74846e984e5269db.jpg)  
+资料来源：Wind，太平洋研究院
+图表 4 大类 ETF规模占比（%）  
+![](images/4ed948127b6a761604921059240e5462fa3f3f8bece82448dd2d1b74fec25b8a.jpg)  
+资源来源：Wind，太平洋研究院
+图表 5 股票型细分ETF数量情况（只）  
+![](images/bfc092452e6337ea2adb71e684a8574b00e26bd249ddb688281c9c1d65706298.jpg)  
+资料来源：Wind，太平洋研究院
+图表 6 股票型细分 ETF规模情况（万亿）  
+![](images/0ee5bc9970b76b12a2960b53b3be45087d4be1b6de1a4263263b391f4bcd2422.jpg)  
+资源来源：Wind，太平洋研究院
+# 二、海内外权益市场指数表现
+本周 A 股市场中上证指数收盘 4117.95，涨跌幅- $. 0 . 4 4 \%$ ，深证成指、中小板指数、创业板指、上证 50、沪深 300、中证 500、中证 1000、
+中证 2000、北证 50 涨跌幅分别为- $1 . 6 2 \%$ 、 $- 3 . 7 8 \%$ 、 $- 0 . 0 9 \%$ 、 $1 . 1 3 \%$ 、$0 . 0 8 \%$ 、 $- 2 . 5 6 \%$ 、 $- 2 . 5 5 \%$ 、 $- 3 . 3 4 \%$ 、 $- 3 . 5 9 \%$ 。从风格方面来看，大盘价值、大盘成长、中盘价值、中盘成长、小盘价值、小盘成长的涨跌幅分别为 $1 . 8 7 \%$ 、 $0 . 6 8 \%$ 、 $0 . 6 7 \%$ 、 $- 1 . 4 0 \%$ 、 $- 1 . 1 7 \%$ 、 $- 3 . 5 8 \%$ 。从细分行业来看，本周石化、通信、煤炭涨幅较大，分别录得 $7 . 9 5 \%$ 、 $5 . 8 3 \%$ 、$3 . 6 8 \%$ ；军工、电力设备、汽车跌幅较大，分别达- $7 . 6 9 \%$ 、 $- 5 . 1 0 \%$ 、-$5 . 0 8 \%$ 。
+本周港股市场中恒生指数收盘 27387.11，涨跌幅为 $2 . 3 8 \%$ ，恒生中国企业指数收盘 9317.09，涨跌幅为 $1 . 7 1 \%$ ，恒生科技指数收盘5718.18，涨跌幅- $1 . 3 8 \%$ 。从规模来看，恒生大型股、大中型股、中型股、中小型股、小型股涨跌幅分别为 $2 . 2 3 \%$ 、 $1 . 9 3 \%$ 、 $0 . 2 8 \%$ 、 $- 0 . 0 8 \%$ 、- $. 1 . 2 4 \%$ 。从细分行业来看，本周能源业涨幅最大，达 $7 . 4 4 \%$ ；医疗保健业跌幅最大，录得 $- 2 . 7 2 \%$ 。
+本周美股市场中道琼斯工业指数、纳斯达克指数、标普 500 收盘分别为 48892.47、23461.82、6939.03，涨跌幅分别为-0.42%、-0.17%、$0 . 3 4 \%$ ；此外，欧元区 STOXX50、英国富时 100、法国 CAC40、德国DAX、日经 225 本周涨跌幅分别为 $1 . 1 8 \%$ 、 $0 . 7 9 \%$ 、 $- 0 . 2 0 \%$ 、 $- 1 . 4 5 \%$ 、- $. 0 . 9 7 \%$ 。
+图表 7A股主要市场指数涨跌幅度  
+![](images/47cd80451d18ca7d322a07bc3b45b6bac9d734f80bbff05464f44df178bbff51.jpg)  
+资料来源：Wind，太平洋研究院
+图表 8A股市场风格指数涨跌幅度  
+![](images/cc079c29028b298c40f461e8dcb41a38d87f24aad1e0ddcbe1432903cc721b76.jpg)  
+资源来源：Wind，太平洋研究院
+图表 9A股市场行业板块涨跌幅  
+![](images/d3fd3e8906fdae09ea217b18c5342fb6aeda05a81d3912f015aa1ff0ac85334c.jpg)  
+资料来源：Wind，太平洋研究院
+图表 10 港股市场主要指数涨跌幅  
+![](images/69cb1abc432691cac8cd1ffa086ef8235f2e99767d18035acf08d2697ef4fa70.jpg)  
+资料来源：Wind，太平洋研究院
+图表 11 港股市场规模指数涨跌幅  
+![](images/d1630a3cd3d9782e11e213cca2738b233e437a0b850b9b50cd3ffe8c264b7f8b.jpg)  
+资源来源：Wind，太平洋研究院
+图表 12 港股市场行业板块涨跌幅  
+![](images/6da777e4078a067950bddbc54902aa7eb722365a965675884d85dec417cef274.jpg)  
+资料来源：Wind，太平洋研究院
+图表 13 美国及其他地区主要市场指数涨跌幅  
+![](images/15d67974392c223dd08022a9af586d5daefb160fdcb5b52fed9185939fff0ce9.jpg)  
+资料来源：Wind，太平洋研究院
+# 三、股票类 ETF资金流向
+宽基ETF本周净流出3890.81亿元，其中，本周资金净流入TOP3：A500ETF 华泰柏瑞（ $_ { + 1 1 . 2 3 }$ 亿元）、双创龙头 ETF（ $: + 9 . 2 7$ 亿元）、上证指数 ETF（ $. + 5 . 4 2$ 亿元）；本周资金净流出 TOP3：沪深 300ETF 易方达（-747.27 亿元）、沪深 300ETF 华泰柏瑞（-742.00 亿元）、沪深300ETF 华夏（-547.13 亿元）。
+行业主题 ETF 本周净流入 705.89 亿元，其中，本周资金净流入TOP3：有色金属 ETF 基金（ $\cdot + 6 4 . 5 5$ 亿元）、有色金属 ETF（ $. + 5 6 . 3 4$ 亿元）、化工 ETF（ $+ 4 0 . 1 2$ 亿元）；本周资金净流出 TOP3：科创 AIETF博时（-11.31 亿元）、电池 ETF（-4.88 亿元）、光伏 ETF（-4.70 亿元）。
+风格策略 ETF 本周净流入 17.38 亿元，其中，本周资金净流入TOP3：自由现金流 ETF $( + 8 . 5 7$ 亿元）、红利低波 ETF 华泰柏瑞 $( + 6 . 7 8$
+亿元）、现金流 ETF（ $( + 6 . 5 3$ 亿元）；本周资金净流出 TOP3：红利 ETF易方达（-4.82亿元）、红利国企ETF 国泰（-4.37亿元）、红利 ETF 华泰柏瑞（-3.50亿元）。
+跨境 ETF 本周净流入 12.44 亿元，其中，本周资金净流入 TOP3港股通非银 ETF（ $: + 1 7 . 9 7$ 亿元）、恒生科技 ETF 天弘（ $_ { ( + 8 . 8 7 }$ 亿元）、亚太精选ETF 南方（ $( + 5 . 1 3$ 亿元）；本周资金净流出 TOP3：香港证券ETF 易方达（-11.06 亿元）、恒生 ETF（-4.37 亿元）、港股科技 50ETF（-3.72 亿元）。
+图表 14 股票类 ETF周度资金净流动 TOP3  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;类别&lt;/td&gt;&lt;td&gt;基金代码&lt;/td&gt;&lt;td&gt;基金名称&lt;/td&gt;&lt;td&gt;基金经理&lt;/td&gt;&lt;td&gt;基金成立日&lt;/td&gt;&lt;td&gt;跟踪指数&lt;/td&gt;&lt;td&gt;基金规模(亿元)&lt;/td&gt;&lt;td&gt;同资金净流入(亿元)&lt;/td&gt;&lt;td&gt;同涨跌幅 (%)&lt;/td&gt;&lt;td&gt;跟踪误差 (%)&lt;/td&gt;&lt;td&gt;OPV 涨市率 (%)&lt;/td&gt;&lt;td&gt;管理费率 (%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;宽基ETF&lt;/td&gt;&lt;td&gt;563360. SH&lt;/td&gt;&lt;td&gt;A500ETF华泰柏瑞&lt;/td&gt;&lt;td&gt;谭弘翔&lt;/td&gt;&lt;td&gt;2024-09-25&lt;/td&gt;&lt;td&gt;中证A500&lt;/td&gt;&lt;td&gt;475.22&lt;/td&gt;&lt;td&gt;11.23&lt;/td&gt;&lt;td&gt;-0.53&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;-0.02&lt;/td&gt;&lt;td&gt;0.15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159603. SZ&lt;/td&gt;&lt;td&gt;双创龙头ETF&lt;/td&gt;&lt;td&gt;张戈&lt;/td&gt;&lt;td&gt;2022-05-26&lt;/td&gt;&lt;td&gt;科创创业50&lt;/td&gt;&lt;td&gt;36.17&lt;/td&gt;&lt;td&gt;9.27&lt;/td&gt;&lt;td&gt;0.27&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;-0.02&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;510210. SH&lt;/td&gt;&lt;td&gt;上证指数ETF&lt;/td&gt;&lt;td&gt;王保合,方晟&lt;/td&gt;&lt;td&gt;2011-01-30&lt;/td&gt;&lt;td&gt;上证指数&lt;/td&gt;&lt;td&gt;62.91&lt;/td&gt;&lt;td&gt;5.42&lt;/td&gt;&lt;td&gt;-0.67&lt;/td&gt;&lt;td&gt;0.13&lt;/td&gt;&lt;td&gt;0.11&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;510310. SH&lt;/td&gt;&lt;td&gt;沪深300ETF易方达&lt;/td&gt;&lt;td&gt;余海燕,庞亚平&lt;/td&gt;&lt;td&gt;2013-03-06&lt;/td&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;1480.49&lt;/td&gt;&lt;td&gt;-747.27&lt;/td&gt;&lt;td&gt;0.13&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;-0.09&lt;/td&gt;&lt;td&gt;0.15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;510300. SH&lt;/td&gt;&lt;td&gt;沪深300ETF华泰柏瑞&lt;/td&gt;&lt;td&gt;柳军&lt;/td&gt;&lt;td&gt;2012-05-04&lt;/td&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;2295.19&lt;/td&gt;&lt;td&gt;-742.00&lt;/td&gt;&lt;td&gt;0.15&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-0.13&lt;/td&gt;&lt;td&gt;0.15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;510330. SH&lt;/td&gt;&lt;td&gt;沪深300ETF华夏&lt;/td&gt;&lt;td&gt;赵宗成&lt;/td&gt;&lt;td&gt;2012-12-25&lt;/td&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;953.16&lt;/td&gt;&lt;td&gt;-547.13&lt;/td&gt;&lt;td&gt;0.10&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;-0.17&lt;/td&gt;&lt;td&gt;0.15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;行业主题ETF&lt;/td&gt;&lt;td&gt;516650. SH&lt;/td&gt;&lt;td&gt;有色金属ETF基金&lt;/td&gt;&lt;td&gt;单宽之&lt;/td&gt;&lt;td&gt;2021-06-09&lt;/td&gt;&lt;td&gt;细分有色&lt;/td&gt;&lt;td&gt;235.47&lt;/td&gt;&lt;td&gt;64.55&lt;/td&gt;&lt;td&gt;2.18&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-1.23&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;512400. SH&lt;/td&gt;&lt;td&gt;有色金属ETF&lt;/td&gt;&lt;td&gt;翟蕾&lt;/td&gt;&lt;td&gt;2017-08-03&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;448.07&lt;/td&gt;&lt;td&gt;56.34&lt;/td&gt;&lt;td&gt;2.01&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;-1.49&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159870. SZ&lt;/td&gt;&lt;td&gt;化工ETF&lt;/td&gt;&lt;td&gt;闫冬&lt;/td&gt;&lt;td&gt;2021-02-23&lt;/td&gt;&lt;td&gt;细分化工&lt;/td&gt;&lt;td&gt;335.16&lt;/td&gt;&lt;td&gt;40.12&lt;/td&gt;&lt;td&gt;-0.86&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;0.11&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;588790. SH&lt;/td&gt;&lt;td&gt;特创AIETF博时&lt;/td&gt;&lt;td&gt;李庆阳&lt;/td&gt;&lt;td&gt;2024-12-31&lt;/td&gt;&lt;td&gt;特创AI&lt;/td&gt;&lt;td&gt;49.11&lt;/td&gt;&lt;td&gt;-11.31&lt;/td&gt;&lt;td&gt;-2.13&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;-0.12&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159755. SZ&lt;/td&gt;&lt;td&gt;电池ETF&lt;/td&gt;&lt;td&gt;罗国庆&lt;/td&gt;&lt;td&gt;2021-06-15&lt;/td&gt;&lt;td&gt;新能源电池&lt;/td&gt;&lt;td&gt;132.24&lt;/td&gt;&lt;td&gt;-4.88&lt;/td&gt;&lt;td&gt;-5.62&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;515790. SH&lt;/td&gt;&lt;td&gt;光伏ETF&lt;/td&gt;&lt;td&gt;李茜,李沐阳&lt;/td&gt;&lt;td&gt;2020-12-07&lt;/td&gt;&lt;td&gt;光伏产业&lt;/td&gt;&lt;td&gt;105.87&lt;/td&gt;&lt;td&gt;-4.70&lt;/td&gt;&lt;td&gt;-7.53&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-0.10&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;风格策略ETF&lt;/td&gt;&lt;td&gt;159201. SZ&lt;/td&gt;&lt;td&gt;自由现金流ETF&lt;/td&gt;&lt;td&gt;杨斯琪&lt;/td&gt;&lt;td&gt;2025-02-19&lt;/td&gt;&lt;td&gt;自由现金流&lt;/td&gt;&lt;td&gt;124.09&lt;/td&gt;&lt;td&gt;8.57&lt;/td&gt;&lt;td&gt;1.14&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;td&gt;0.14&lt;/td&gt;&lt;td&gt;0.15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;512890. SH&lt;/td&gt;&lt;td&gt;红利低波ETF华泰柏瑞&lt;/td&gt;&lt;td&gt;柳军&lt;/td&gt;&lt;td&gt;2018-12-19&lt;/td&gt;&lt;td&gt;红利低波&lt;/td&gt;&lt;td&gt;289.66&lt;/td&gt;&lt;td&gt;6.78&lt;/td&gt;&lt;td&gt;1.74&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;td&gt;0.20&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159399. SZ&lt;/td&gt;&lt;td&gt;现金流ETF&lt;/td&gt;&lt;td&gt;麻烽文&lt;/td&gt;&lt;td&gt;2025-02-19富时中国A股自由现金流聚焦指数&lt;/td&gt;&lt;td&gt;54.05&lt;/td&gt;&lt;td&gt;6.53&lt;/td&gt;&lt;td&gt;0.25&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;515180. SH&lt;/td&gt;&lt;td&gt;红利ETF易方达&lt;/td&gt;&lt;td&gt;林伟威,宋创贤&lt;/td&gt;&lt;td&gt;2019-11-26&lt;/td&gt;&lt;td&gt;中证红利&lt;/td&gt;&lt;td&gt;108.42&lt;/td&gt;&lt;td&gt;-4.82&lt;/td&gt;&lt;td&gt;1.57&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-0.05&lt;/td&gt;&lt;td&gt;0.15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;510720. SH&lt;/td&gt;&lt;td&gt;红利国企ETF 国泰&lt;/td&gt;&lt;td&gt;麻烽文&lt;/td&gt;&lt;td&gt;2024-04-30&lt;/td&gt;&lt;td&gt;上国红利&lt;/td&gt;&lt;td&gt;25.96&lt;/td&gt;&lt;td&gt;-4.37&lt;/td&gt;&lt;td&gt;2.71&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;td&gt;-0.05&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;510880. SH&lt;/td&gt;&lt;td&gt;红利ETF华泰柏瑞&lt;/td&gt;&lt;td&gt;柳军,李茜&lt;/td&gt;&lt;td&gt;2006-11-17&lt;/td&gt;&lt;td&gt;红利指数&lt;/td&gt;&lt;td&gt;196.98&lt;/td&gt;&lt;td&gt;-3.50&lt;/td&gt;&lt;td&gt;2.44&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;td&gt;0.07&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;跨境ETF&lt;/td&gt;&lt;td&gt;513750. SH&lt;/td&gt;&lt;td&gt;港股通非银ETF&lt;/td&gt;&lt;td&gt;罗国庆,曹世宇&lt;/td&gt;&lt;td&gt;2023-11-10&lt;/td&gt;&lt;td&gt;港股通非银&lt;/td&gt;&lt;td&gt;391.36&lt;/td&gt;&lt;td&gt;17.97&lt;/td&gt;&lt;td&gt;5.93&lt;/td&gt;&lt;td&gt;0.09&lt;/td&gt;&lt;td&gt;-0.31&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;520920. SH&lt;/td&gt;&lt;td&gt;恒生科技ETF天弘&lt;/td&gt;&lt;td&gt;胡起,刘冬&lt;/td&gt;&lt;td&gt;2025-09-22&lt;/td&gt;&lt;td&gt;恒生科技&lt;/td&gt;&lt;td&gt;143.55&lt;/td&gt;&lt;td&gt;8.87&lt;/td&gt;&lt;td&gt;-1.35&lt;/td&gt;&lt;td&gt;0.09&lt;/td&gt;&lt;td&gt;0.45&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159687. SZ&lt;/td&gt;&lt;td&gt;亚太精选ETF南方&lt;/td&gt;&lt;td&gt;王鑫,张其思&lt;/td&gt;&lt;td&gt;2022-12-16&lt;/td&gt;&lt;td&gt;富时亚太低碳精选指数&lt;/td&gt;&lt;td&gt;15.00&lt;/td&gt;&lt;td&gt;5.13&lt;/td&gt;&lt;td&gt;3.72&lt;/td&gt;&lt;td&gt;0.30&lt;/td&gt;&lt;td&gt;1.51&lt;/td&gt;&lt;td&gt;0.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;513090. SH&lt;/td&gt;&lt;td&gt;香港证券ETF易方达&lt;/td&gt;&lt;td&gt;宋剑贤&lt;/td&gt;&lt;td&gt;2020-03-13&lt;/td&gt;&lt;td&gt;香港证券&lt;/td&gt;&lt;td&gt;276.33&lt;/td&gt;&lt;td&gt;-11.06&lt;/td&gt;&lt;td&gt;1.50&lt;/td&gt;&lt;td&gt;0.09&lt;/td&gt;&lt;td&gt;-0.23&lt;/td&gt;&lt;td&gt;0.15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159920. SZ&lt;/td&gt;&lt;td&gt;恒生ETF&lt;/td&gt;&lt;td&gt;徐猛&lt;/td&gt;&lt;td&gt;2012-08-09&lt;/td&gt;&lt;td&gt;恒生指数&lt;/td&gt;&lt;td&gt;134.93&lt;/td&gt;&lt;td&gt;-4.37&lt;/td&gt;&lt;td&gt;2.36&lt;/td&gt;&lt;td&gt;0.08&lt;/td&gt;&lt;td&gt;-0.39&lt;/td&gt;&lt;td&gt;0.60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;513980. SH&lt;/td&gt;&lt;td&gt;港股科技50ETF&lt;/td&gt;&lt;td&gt;金琦,汪洋&lt;/td&gt;&lt;td&gt;2021-06-21&lt;/td&gt;&lt;td&gt;港股通科技&lt;/td&gt;&lt;td&gt;238.06&lt;/td&gt;&lt;td&gt;-3.72&lt;/td&gt;&lt;td&gt;-1.60&lt;/td&gt;&lt;td&gt;0.09&lt;/td&gt;&lt;td&gt;-0.18&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，太平洋研究院
+图表 15 股票类 ETF周度资金净流动（亿元）  
+![](images/c502498451d711ef1589a7bdf4b0055fe13ec280b13350f3fabef2f3a3410d46.jpg)  
+资料来源：Wind，太平洋研究院
+# 四、行业拥挤度监测
+通过构建行业拥挤度监测模型，对申万一级行业指数的拥挤度进行每日监测，前一交易日有色、石油石化、农林牧渔、传媒靠前，相比较而言，汽车、家电、医药的拥挤度水平较低，建议关注。此外，食饮、农林牧渔本周拥挤度变动较大。从主力资金流动来看，前一交易日主力资金流入通信、农牧、煤炭；流出有色、计算机、电子。本周主力资金减配有色、电子、电力设备；增配银行、非银、通信。
+图表 16 行业拥挤度热力图（近 30个交易日）  
+![](images/c9c51fffcf2cc0b15adc676fa47c64fcd83bd90c1a8c8f4ad0dbc1730ad6565e.jpg)  
+资料来源：Wind，太平洋研究院
+图表 17 申万一级行业指数周度主力资金净流动（亿元）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数代码&lt;/td&gt;&lt;td&gt;指数名称&lt;/td&gt;&lt;td&gt;主力净流入额T&lt;/td&gt;&lt;td&gt;主力净流入额T-1&lt;/td&gt;&lt;td&gt;主力净流入额T-2&lt;/td&gt;&lt;td&gt;主力净流入额T-3&lt;/td&gt;&lt;td&gt;主力净流入额T-4&lt;/td&gt;&lt;td&gt;近5个交易日合计&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801010.SI&lt;/td&gt;&lt;td&gt;农林牧渔(申万)&lt;/td&gt;&lt;td&gt;8.80&lt;/td&gt;&lt;td&gt;-6.62&lt;/td&gt;&lt;td&gt;1.78&lt;/td&gt;&lt;td&gt;2.88&lt;/td&gt;&lt;td&gt;-1.90&lt;/td&gt;&lt;td&gt;4.94&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801030.SI&lt;/td&gt;&lt;td&gt;基础化工(申万)&lt;/td&gt;&lt;td&gt;-43.31&lt;/td&gt;&lt;td&gt;-31.06&lt;/td&gt;&lt;td&gt;1.89&lt;/td&gt;&lt;td&gt;-41.84&lt;/td&gt;&lt;td&gt;-28.60&lt;/td&gt;&lt;td&gt;-142.92&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801040.SI&lt;/td&gt;&lt;td&gt;钢铁(申万)&lt;/td&gt;&lt;td&gt;-6.10&lt;/td&gt;&lt;td&gt;-7.10&lt;/td&gt;&lt;td&gt;2.59&lt;/td&gt;&lt;td&gt;-5.41&lt;/td&gt;&lt;td&gt;-1.46&lt;/td&gt;&lt;td&gt;-17.49&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801050.SI&lt;/td&gt;&lt;td&gt;有色金属(申万)&lt;/td&gt;&lt;td&gt;-148.54&lt;/td&gt;&lt;td&gt;-121.64&lt;/td&gt;&lt;td&gt;32.53&lt;/td&gt;&lt;td&gt;-122.51&lt;/td&gt;&lt;td&gt;-34.88&lt;/td&gt;&lt;td&gt;-395.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801080.SI&lt;/td&gt;&lt;td&gt;电子(申万)&lt;/td&gt;&lt;td&gt;-77.70&lt;/td&gt;&lt;td&gt;-244.49&lt;/td&gt;&lt;td&gt;-81.08&lt;/td&gt;&lt;td&gt;9.15&lt;/td&gt;&lt;td&gt;-174.87&lt;/td&gt;&lt;td&gt;-568.98&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801110.SI&lt;/td&gt;&lt;td&gt;家用电器(申万)&lt;/td&gt;&lt;td&gt;2.11&lt;/td&gt;&lt;td&gt;-17.45&lt;/td&gt;&lt;td&gt;-16.64&lt;/td&gt;&lt;td&gt;-5.85&lt;/td&gt;&lt;td&gt;-27.18&lt;/td&gt;&lt;td&gt;-65.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801120.SI&lt;/td&gt;&lt;td&gt;食品饮料(申万)&lt;/td&gt;&lt;td&gt;-21.94&lt;/td&gt;&lt;td&gt;37.34&lt;/td&gt;&lt;td&gt;0.41&lt;/td&gt;&lt;td&gt;-1.61&lt;/td&gt;&lt;td&gt;-13.36&lt;/td&gt;&lt;td&gt;0.84&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801130.SI&lt;/td&gt;&lt;td&gt;纺织服饰(申万)&lt;/td&gt;&lt;td&gt;-8.73&lt;/td&gt;&lt;td&gt;-4.37&lt;/td&gt;&lt;td&gt;6.75&lt;/td&gt;&lt;td&gt;-4.31&lt;/td&gt;&lt;td&gt;-2.79&lt;/td&gt;&lt;td&gt;-13.44&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801140.SI&lt;/td&gt;&lt;td&gt;轻工制造(申万)&lt;/td&gt;&lt;td&gt;-4.59&lt;/td&gt;&lt;td&gt;-1.65&lt;/td&gt;&lt;td&gt;-3.65&lt;/td&gt;&lt;td&gt;-3.55&lt;/td&gt;&lt;td&gt;-6.09&lt;/td&gt;&lt;td&gt;-19.52&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801150.SI&lt;/td&gt;&lt;td&gt;医药生物(申万)&lt;/td&gt;&lt;td&gt;-24.51&lt;/td&gt;&lt;td&gt;-10.51&lt;/td&gt;&lt;td&gt;-48.41&lt;/td&gt;&lt;td&gt;-51.90&lt;/td&gt;&lt;td&gt;32.88&lt;/td&gt;&lt;td&gt;-102.45&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801160.SI&lt;/td&gt;&lt;td&gt;公用事业(申万)&lt;/td&gt;&lt;td&gt;-10.95&lt;/td&gt;&lt;td&gt;-9.69&lt;/td&gt;&lt;td&gt;-3.19&lt;/td&gt;&lt;td&gt;-0.13&lt;/td&gt;&lt;td&gt;-8.26&lt;/td&gt;&lt;td&gt;-32.22&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801170.SI&lt;/td&gt;&lt;td&gt;交通运输(申万)&lt;/td&gt;&lt;td&gt;-3.69&lt;/td&gt;&lt;td&gt;-3.25&lt;/td&gt;&lt;td&gt;2.32&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-8.55&lt;/td&gt;&lt;td&gt;-13.14&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801180.SI&lt;/td&gt;&lt;td&gt;房地产(申万)&lt;/td&gt;&lt;td&gt;-10.98&lt;/td&gt;&lt;td&gt;5.05&lt;/td&gt;&lt;td&gt;6.05&lt;/td&gt;&lt;td&gt;-3.45&lt;/td&gt;&lt;td&gt;-5.93&lt;/td&gt;&lt;td&gt;-9.25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801200.SI&lt;/td&gt;&lt;td&gt;商贸零售(申万)&lt;/td&gt;&lt;td&gt;-2.96&lt;/td&gt;&lt;td&gt;-2.86&lt;/td&gt;&lt;td&gt;-0.07&lt;/td&gt;&lt;td&gt;-0.39&lt;/td&gt;&lt;td&gt;-6.14&lt;/td&gt;&lt;td&gt;-12.42&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801210.SI&lt;/td&gt;&lt;td&gt;社会服务(申万)&lt;/td&gt;&lt;td&gt;-2.77&lt;/td&gt;&lt;td&gt;-2.52&lt;/td&gt;&lt;td&gt;-4.02&lt;/td&gt;&lt;td&gt;-3.97&lt;/td&gt;&lt;td&gt;-10.05&lt;/td&gt;&lt;td&gt;-23.33&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801230.SI&lt;/td&gt;&lt;td&gt;综合(申万)&lt;/td&gt;&lt;td&gt;-1.19&lt;/td&gt;&lt;td&gt;-2.30&lt;/td&gt;&lt;td&gt;-0.16&lt;/td&gt;&lt;td&gt;-1.29&lt;/td&gt;&lt;td&gt;0.47&lt;/td&gt;&lt;td&gt;-4.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801710.SI&lt;/td&gt;&lt;td&gt;建筑材料(申万)&lt;/td&gt;&lt;td&gt;-4.41&lt;/td&gt;&lt;td&gt;-7.57&lt;/td&gt;&lt;td&gt;9.89&lt;/td&gt;&lt;td&gt;-4.29&lt;/td&gt;&lt;td&gt;-3.76&lt;/td&gt;&lt;td&gt;-10.15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801720.SI&lt;/td&gt;&lt;td&gt;建筑装饰(申万)&lt;/td&gt;&lt;td&gt;-2.56&lt;/td&gt;&lt;td&gt;-12.85&lt;/td&gt;&lt;td&gt;-12.01&lt;/td&gt;&lt;td&gt;-1.75&lt;/td&gt;&lt;td&gt;-13.07&lt;/td&gt;&lt;td&gt;-42.25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801730.SI&lt;/td&gt;&lt;td&gt;电力设备(申万)&lt;/td&gt;&lt;td&gt;-49.92&lt;/td&gt;&lt;td&gt;-95.03&lt;/td&gt;&lt;td&gt;-107.28&lt;/td&gt;&lt;td&gt;-87.70&lt;/td&gt;&lt;td&gt;-143.69&lt;/td&gt;&lt;td&gt;-483.62&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801740.SI&lt;/td&gt;&lt;td&gt;国防军工(申万)&lt;/td&gt;&lt;td&gt;-23.67&lt;/td&gt;&lt;td&gt;-25.64&lt;/td&gt;&lt;td&gt;-33.56&lt;/td&gt;&lt;td&gt;0.49&lt;/td&gt;&lt;td&gt;-117.05&lt;/td&gt;&lt;td&gt;-199.42&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801750.SI&lt;/td&gt;&lt;td&gt;计算机(申万)&lt;/td&gt;&lt;td&gt;-87.58&lt;/td&gt;&lt;td&gt;-10.75&lt;/td&gt;&lt;td&gt;-13.94&lt;/td&gt;&lt;td&gt;-46.35&lt;/td&gt;&lt;td&gt;-46.48&lt;/td&gt;&lt;td&gt;-205.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801760.SI&lt;/td&gt;&lt;td&gt;传媒(申万)&lt;/td&gt;&lt;td&gt;-32.17&lt;/td&gt;&lt;td&gt;75.08&lt;/td&gt;&lt;td&gt;-30.59&lt;/td&gt;&lt;td&gt;-8.98&lt;/td&gt;&lt;td&gt;-41.49&lt;/td&gt;&lt;td&gt;-38.15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801770.SI&lt;/td&gt;&lt;td&gt;通信(申万)&lt;/td&gt;&lt;td&gt;39.19&lt;/td&gt;&lt;td&gt;-12.63&lt;/td&gt;&lt;td&gt;22.36&lt;/td&gt;&lt;td&gt;41.20&lt;/td&gt;&lt;td&gt;25.19&lt;/td&gt;&lt;td&gt;115.31&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801780.SI&lt;/td&gt;&lt;td&gt;银行(申万)&lt;/td&gt;&lt;td&gt;-0.29&lt;/td&gt;&lt;td&gt;-2.19&lt;/td&gt;&lt;td&gt;22.38&lt;/td&gt;&lt;td&gt;17.12&lt;/td&gt;&lt;td&gt;14.38&lt;/td&gt;&lt;td&gt;51.41&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801790.SI&lt;/td&gt;&lt;td&gt;非银金融(申万)&lt;/td&gt;&lt;td&gt;-7.35&lt;/td&gt;&lt;td&gt;6.40&lt;/td&gt;&lt;td&gt;5.81&lt;/td&gt;&lt;td&gt;-8.82&lt;/td&gt;&lt;td&gt;16.28&lt;/td&gt;&lt;td&gt;12.31&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801880.SI&lt;/td&gt;&lt;td&gt;汽车(申万)&lt;/td&gt;&lt;td&gt;-21.15&lt;/td&gt;&lt;td&gt;-26.02&lt;/td&gt;&lt;td&gt;-26.86&lt;/td&gt;&lt;td&gt;-34.81&lt;/td&gt;&lt;td&gt;-63.92&lt;/td&gt;&lt;td&gt;-172.77&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801890.SI&lt;/td&gt;&lt;td&gt;机械设备(申万)&lt;/td&gt;&lt;td&gt;-32.50&lt;/td&gt;&lt;td&gt;-63.98&lt;/td&gt;&lt;td&gt;-17.98&lt;/td&gt;&lt;td&gt;-35.22&lt;/td&gt;&lt;td&gt;-74.34&lt;/td&gt;&lt;td&gt;-224.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801950.SI&lt;/td&gt;&lt;td&gt;煤炭(申万)&lt;/td&gt;&lt;td&gt;3.48&lt;/td&gt;&lt;td&gt;-3.38&lt;/td&gt;&lt;td&gt;-2.36&lt;/td&gt;&lt;td&gt;-0.28&lt;/td&gt;&lt;td&gt;-0.94&lt;/td&gt;&lt;td&gt;-3.48&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801960.SI&lt;/td&gt;&lt;td&gt;石油石化(申万)&lt;/td&gt;&lt;td&gt;-11.65&lt;/td&gt;&lt;td&gt;-2.47&lt;/td&gt;&lt;td&gt;4.67&lt;/td&gt;&lt;td&gt;-3.49&lt;/td&gt;&lt;td&gt;-1.63&lt;/td&gt;&lt;td&gt;-14.58&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801970.SI&lt;/td&gt;&lt;td&gt;环保(申万)&lt;/td&gt;&lt;td&gt;-7.88&lt;/td&gt;&lt;td&gt;-4.17&lt;/td&gt;&lt;td&gt;-0.72&lt;/td&gt;&lt;td&gt;-6.50&lt;/td&gt;&lt;td&gt;-10.31&lt;/td&gt;&lt;td&gt;-29.59&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801980.SI&lt;/td&gt;&lt;td&gt;美容护理(申万)&lt;/td&gt;&lt;td&gt;-0.59&lt;/td&gt;&lt;td&gt;0.13&lt;/td&gt;&lt;td&gt;-1.86&lt;/td&gt;&lt;td&gt;-0.81&lt;/td&gt;&lt;td&gt;0.19&lt;/td&gt;&lt;td&gt;-2.95&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，太平洋研究院
+# 五、ETF产品关注信号
+根据溢价率Z-score模型搭建相关 ETF 产品筛选信号模型，通过滚动测算提供存在潜在套利机会的标的，此外需警惕标的回调风险。
+图表 18ETF产品关注信号  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;交易信号&lt;/td&gt;&lt;td&gt;基金代码&lt;/td&gt;&lt;td&gt;基金名称&lt;/td&gt;&lt;td&gt;基金经理&lt;/td&gt;&lt;td&gt;基金成立日&lt;/td&gt;&lt;td&gt;跟踪指数&lt;/td&gt;&lt;td&gt;基金规模（亿元）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;建议关注&lt;/td&gt;&lt;td&gt;159934.SZ&lt;/td&gt;&lt;td&gt;黄金ETF&lt;/td&gt;&lt;td&gt;张泽峰,张湛&lt;/td&gt;&lt;td&gt;2013-11-29&lt;/td&gt;&lt;td&gt;SGE黄金9999&lt;/td&gt;&lt;td&gt;472.76&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159652.SZ&lt;/td&gt;&lt;td&gt;有色50ETF&lt;/td&gt;&lt;td&gt;董瑾&lt;/td&gt;&lt;td&gt;2023-01-16&lt;/td&gt;&lt;td&gt;细分有色&lt;/td&gt;&lt;td&gt;71.13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;512400.SH&lt;/td&gt;&lt;td&gt;有色金属ETF&lt;/td&gt;&lt;td&gt;崔蕾&lt;/td&gt;&lt;td&gt;2017-08-03&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;448.07&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;560860.SH&lt;/td&gt;&lt;td&gt;工业有色ETF&lt;/td&gt;&lt;td&gt;贺方舟&lt;/td&gt;&lt;td&gt;2023-02-22&lt;/td&gt;&lt;td&gt;工业有色&lt;/td&gt;&lt;td&gt;160.36&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;510410.SH&lt;/td&gt;&lt;td&gt;资源ETF&lt;/td&gt;&lt;td&gt;王祥&lt;/td&gt;&lt;td&gt;2012-04-10&lt;/td&gt;&lt;td&gt;上证资源&lt;/td&gt;&lt;td&gt;10.86&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，太平洋研究院
+# 风险提示
+本报告结论完全基于公开历史数据，建议关注的行业指数与 ETF产品基于构建的量化模型，仅供大家参考阅读，不构成任何投资建议。
+# 投资评级说明
+# 1、行业评级
+看好：预计未来 6个月内，行业整体回报高于沪深 300指数 $5 \%$ 以上；
+中性：预计未来 6 个月内，行业整体回报介于沪深 300 指数 $- 5 \%$ 与 $5 \%$ 之间；
+看淡：预计未来 6个月内，行业整体回报低于沪深 300指数 $5 \%$ 以下。
+# 2、公司评级
+买入：预计未来 6个月内，个股相对沪深 300指数涨幅在 $1 5 \%$ 以上；
+增持：预计未来 6 个月内，个股相对沪深 300指数涨幅介于 $5 \%$ 与 $1 5 \%$ 之间；
+持有：预计未来 6 个月内，个股相对沪深 300 指数涨幅介于 $- 5 \%$ 与 $5 \%$ 之间；
+减持：预计未来6个月内，个股相对沪深 300 指数涨幅介于- $- 5 \%$ 与- $\cdot 1 5 \%$ 之间；
+卖出：预计未来 6个月内，个股相对沪深 300指数涨幅低于- $- 1 5 \%$ 以下。
+# 太平洋证券股份有限公司
+云南省昆明市盘龙区北京路 926号同德广场写字楼 31楼
+![](images/e14d681f067b61812e111487f40d691f07de0a35415e42e49640619622683071.jpg)
+# 太平洋证券
+# PACIFIC SECURITIES
+![](images/adc8a1fc8be69cf257eb1f291298edbc10aac213fafcbcba44d4f54be93cbbe6.jpg)
+# 研究院
+中国北京 100044
+北京市西城区北展北街九号
+华远·企业号 D座
+投诉电话： 95397
+投诉邮箱： kefu@tpyzq.com
+# 免责声明
+太平洋证券股份有限公司（以下简称“我公司”或“太平洋证券”）具备中国证券监督管理委员会核准的证券投资咨询业务资格。
+本报告仅向与太平洋证券签署服务协议的签约客户发布，为太平洋证券签约客户的专属研究产品，若您并非太平洋证券签约客户，请取消接收、订阅或使用本报告中的任何信息；太平洋证券不会因接收人收到、阅读或关注媒体推送本报告中的内容而视其为太平洋证券的客户。在任何情况下，本报告中的信息或所表述的意见并不构成对任何机构和个人的投资建议，投资者应自主作出投资决策并自行承担投资风险，任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。
+本报告信息均来源于公开资料，我公司对这些信息的准确性和完整性不作任何保证。负责准备本报告以及撰写本报告的所有研究分析师或工作人员在此保证，本研究报告中关于任何发行商或证券所发表的观点均如实反映研究人员的个人观点。报告中的内容和意见仅供参考，并不构成对所述证券买卖的出价或询价。我公司及其雇员对使用本报告及其内容所引发的任何直接或间接损失概不负责。我公司或关联机构可能会持有报告中所提到的公司所发行的证券头寸并进行交易，还可能为这些公司提
+面许可任何机
+构和个人不得以任何形式翻版、复制、刊登。任何人使用本报告，视为同意以上声明。</t>
   </si>
   <si>
     <t>金工ETF点评：宽基 ETF 单日净流出152.82 亿元；医药、商贸零售拥挤变幅较大
@@ -7121,6 +7859,9 @@
 浙商证券研究所：https://www.stocke.com.cn</t>
   </si>
   <si>
+    <t>2026-02-04 21:58:31</t>
+  </si>
+  <si>
     <t>2026-02-03 00:16:39</t>
   </si>
   <si>
@@ -7852,8 +8593,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -8151,38 +8895,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="80.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8194,19 +8950,13 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>11426</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
+        <v>26238</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -8217,19 +8967,13 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>11413</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
+        <v>14676</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8240,19 +8984,13 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>42594</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
+        <v>16377</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8263,19 +9001,13 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>36689</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
+        <v>17932</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8286,19 +9018,19 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>7652</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
+        <v>11426</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8309,19 +9041,19 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>8753</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
+        <v>11413</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8332,19 +9064,19 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>11395</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
+        <v>42594</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I8" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8355,19 +9087,19 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <v>26112</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
+        <v>36689</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I9" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8378,19 +9110,19 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>11406</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
+        <v>7652</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I10" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8401,19 +9133,19 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>11433</v>
-      </c>
-      <c r="F11" t="s">
-        <v>79</v>
+        <v>8753</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I11" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -8424,19 +9156,19 @@
         <v>19</v>
       </c>
       <c r="E12">
-        <v>23186</v>
-      </c>
-      <c r="F12" t="s">
-        <v>80</v>
+        <v>11395</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H12" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -8447,19 +9179,19 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>23197</v>
-      </c>
-      <c r="F13" t="s">
-        <v>81</v>
+        <v>26112</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I13" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -8470,19 +9202,19 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>26267</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
+        <v>11406</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H14" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -8493,19 +9225,19 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>16882</v>
-      </c>
-      <c r="F15" t="s">
-        <v>83</v>
+        <v>11433</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I15" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -8516,19 +9248,19 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>13951</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
+        <v>23186</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I16" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -8539,19 +9271,19 @@
         <v>24</v>
       </c>
       <c r="E17">
-        <v>11489</v>
-      </c>
-      <c r="F17" t="s">
-        <v>85</v>
+        <v>23197</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I17" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -8562,19 +9294,19 @@
         <v>25</v>
       </c>
       <c r="E18">
-        <v>11401</v>
-      </c>
-      <c r="F18" t="s">
-        <v>86</v>
+        <v>26267</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I18" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -8585,19 +9317,19 @@
         <v>26</v>
       </c>
       <c r="E19">
-        <v>25016</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
+        <v>16882</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I19" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -8608,19 +9340,19 @@
         <v>27</v>
       </c>
       <c r="E20">
-        <v>11418</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
+        <v>13951</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H20" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I20" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -8631,19 +9363,19 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>16998</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
+        <v>11489</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H21" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -8654,19 +9386,19 @@
         <v>29</v>
       </c>
       <c r="E22">
-        <v>23185</v>
-      </c>
-      <c r="F22" t="s">
-        <v>90</v>
+        <v>11401</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H22" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I22" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -8677,19 +9409,19 @@
         <v>30</v>
       </c>
       <c r="E23">
-        <v>41705</v>
-      </c>
-      <c r="F23" t="s">
-        <v>91</v>
+        <v>25016</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -8700,19 +9432,19 @@
         <v>31</v>
       </c>
       <c r="E24">
-        <v>9212</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
+        <v>11418</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -8723,19 +9455,19 @@
         <v>32</v>
       </c>
       <c r="E25">
-        <v>11458</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
+        <v>16998</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H25" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -8746,19 +9478,19 @@
         <v>33</v>
       </c>
       <c r="E26">
-        <v>23145</v>
-      </c>
-      <c r="F26" t="s">
-        <v>94</v>
+        <v>23185</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -8769,19 +9501,19 @@
         <v>34</v>
       </c>
       <c r="E27">
-        <v>11479</v>
-      </c>
-      <c r="F27" t="s">
-        <v>95</v>
+        <v>41705</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H27" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -8792,19 +9524,19 @@
         <v>35</v>
       </c>
       <c r="E28">
-        <v>11478</v>
-      </c>
-      <c r="F28" t="s">
-        <v>96</v>
+        <v>9212</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H28" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I28" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -8815,19 +9547,19 @@
         <v>36</v>
       </c>
       <c r="E29">
-        <v>16894</v>
-      </c>
-      <c r="F29" t="s">
-        <v>97</v>
+        <v>11458</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H29" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I29" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -8838,16 +9570,16 @@
         <v>37</v>
       </c>
       <c r="E30">
-        <v>40738</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
+        <v>23145</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H30" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I30" t="s">
         <v>215</v>
@@ -8861,19 +9593,19 @@
         <v>38</v>
       </c>
       <c r="E31">
-        <v>11447</v>
-      </c>
-      <c r="F31" t="s">
-        <v>99</v>
+        <v>11479</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="G31" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H31" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I31" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -8884,19 +9616,19 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>9099</v>
-      </c>
-      <c r="F32" t="s">
-        <v>100</v>
+        <v>11478</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H32" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I32" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -8907,19 +9639,19 @@
         <v>40</v>
       </c>
       <c r="E33">
-        <v>11405</v>
-      </c>
-      <c r="F33" t="s">
-        <v>101</v>
+        <v>16894</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I33" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -8930,19 +9662,19 @@
         <v>41</v>
       </c>
       <c r="E34">
-        <v>11428</v>
-      </c>
-      <c r="F34" t="s">
-        <v>102</v>
+        <v>40738</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G34" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H34" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I34" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -8953,19 +9685,19 @@
         <v>42</v>
       </c>
       <c r="E35">
-        <v>11437</v>
-      </c>
-      <c r="F35" t="s">
-        <v>103</v>
+        <v>11447</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="G35" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H35" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I35" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -8976,19 +9708,19 @@
         <v>43</v>
       </c>
       <c r="E36">
-        <v>11433</v>
-      </c>
-      <c r="F36" t="s">
-        <v>104</v>
+        <v>9099</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="G36" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H36" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I36" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -8999,19 +9731,19 @@
         <v>44</v>
       </c>
       <c r="E37">
-        <v>11438</v>
-      </c>
-      <c r="F37" t="s">
-        <v>105</v>
+        <v>11405</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="G37" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H37" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I37" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -9022,19 +9754,19 @@
         <v>45</v>
       </c>
       <c r="E38">
-        <v>17004</v>
-      </c>
-      <c r="F38" t="s">
-        <v>106</v>
+        <v>11428</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H38" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I38" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -9045,19 +9777,19 @@
         <v>46</v>
       </c>
       <c r="E39">
-        <v>7936</v>
-      </c>
-      <c r="F39" t="s">
-        <v>107</v>
+        <v>11437</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G39" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H39" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I39" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -9068,19 +9800,19 @@
         <v>47</v>
       </c>
       <c r="E40">
-        <v>26155</v>
-      </c>
-      <c r="F40" t="s">
-        <v>108</v>
+        <v>11433</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G40" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H40" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I40" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -9091,19 +9823,19 @@
         <v>48</v>
       </c>
       <c r="E41">
-        <v>11460</v>
-      </c>
-      <c r="F41" t="s">
-        <v>109</v>
+        <v>11438</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="G41" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H41" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I41" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -9114,19 +9846,19 @@
         <v>49</v>
       </c>
       <c r="E42">
-        <v>7935</v>
-      </c>
-      <c r="F42" t="s">
-        <v>110</v>
+        <v>17004</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G42" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H42" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I42" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -9137,19 +9869,19 @@
         <v>50</v>
       </c>
       <c r="E43">
-        <v>8677</v>
-      </c>
-      <c r="F43" t="s">
-        <v>111</v>
+        <v>7936</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="G43" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H43" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I43" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -9160,19 +9892,19 @@
         <v>51</v>
       </c>
       <c r="E44">
-        <v>23135</v>
-      </c>
-      <c r="F44" t="s">
-        <v>112</v>
+        <v>26155</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G44" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H44" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="I44" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -9183,19 +9915,19 @@
         <v>52</v>
       </c>
       <c r="E45">
-        <v>11403</v>
-      </c>
-      <c r="F45" t="s">
-        <v>113</v>
+        <v>11460</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="G45" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H45" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I45" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -9206,19 +9938,19 @@
         <v>53</v>
       </c>
       <c r="E46">
-        <v>11452</v>
-      </c>
-      <c r="F46" t="s">
-        <v>114</v>
+        <v>7935</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="G46" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H46" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I46" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -9229,19 +9961,19 @@
         <v>54</v>
       </c>
       <c r="E47">
-        <v>18354</v>
-      </c>
-      <c r="F47" t="s">
-        <v>115</v>
+        <v>8677</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H47" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I47" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -9252,19 +9984,19 @@
         <v>55</v>
       </c>
       <c r="E48">
-        <v>26005</v>
-      </c>
-      <c r="F48" t="s">
-        <v>116</v>
+        <v>23135</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G48" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H48" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I48" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -9275,19 +10007,19 @@
         <v>56</v>
       </c>
       <c r="E49">
-        <v>10997</v>
-      </c>
-      <c r="F49" t="s">
-        <v>117</v>
+        <v>11403</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="G49" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H49" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I49" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -9298,19 +10030,19 @@
         <v>57</v>
       </c>
       <c r="E50">
-        <v>11423</v>
-      </c>
-      <c r="F50" t="s">
-        <v>118</v>
+        <v>11452</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="G50" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H50" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I50" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -9321,19 +10053,19 @@
         <v>58</v>
       </c>
       <c r="E51">
-        <v>9594</v>
-      </c>
-      <c r="F51" t="s">
-        <v>119</v>
+        <v>18354</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="G51" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H51" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I51" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -9344,19 +10076,19 @@
         <v>59</v>
       </c>
       <c r="E52">
-        <v>11502</v>
-      </c>
-      <c r="F52" t="s">
-        <v>120</v>
+        <v>26005</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G52" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -9367,19 +10099,19 @@
         <v>60</v>
       </c>
       <c r="E53">
-        <v>11487</v>
-      </c>
-      <c r="F53" t="s">
-        <v>121</v>
+        <v>10997</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="G53" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H53" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I53" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -9390,19 +10122,19 @@
         <v>61</v>
       </c>
       <c r="E54">
-        <v>23400</v>
-      </c>
-      <c r="F54" t="s">
-        <v>122</v>
+        <v>11423</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="G54" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H54" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I54" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -9413,19 +10145,19 @@
         <v>62</v>
       </c>
       <c r="E55">
-        <v>8745</v>
-      </c>
-      <c r="F55" t="s">
-        <v>123</v>
+        <v>9594</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="G55" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H55" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I55" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -9436,19 +10168,19 @@
         <v>63</v>
       </c>
       <c r="E56">
-        <v>11519</v>
-      </c>
-      <c r="F56" t="s">
-        <v>124</v>
+        <v>11502</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="G56" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H56" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I56" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -9459,19 +10191,19 @@
         <v>64</v>
       </c>
       <c r="E57">
-        <v>23331</v>
-      </c>
-      <c r="F57" t="s">
-        <v>125</v>
+        <v>11487</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="G57" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H57" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I57" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -9482,19 +10214,19 @@
         <v>65</v>
       </c>
       <c r="E58">
-        <v>11481</v>
-      </c>
-      <c r="F58" t="s">
-        <v>126</v>
+        <v>23400</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="G58" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H58" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I58" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -9505,19 +10237,19 @@
         <v>66</v>
       </c>
       <c r="E59">
-        <v>26164</v>
-      </c>
-      <c r="F59" t="s">
-        <v>127</v>
+        <v>8745</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="G59" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H59" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="I59" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -9528,19 +10260,19 @@
         <v>67</v>
       </c>
       <c r="E60">
-        <v>8963</v>
-      </c>
-      <c r="F60" t="s">
-        <v>128</v>
+        <v>11519</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="G60" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H60" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I60" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -9551,19 +10283,19 @@
         <v>68</v>
       </c>
       <c r="E61">
-        <v>17975</v>
-      </c>
-      <c r="F61" t="s">
-        <v>129</v>
+        <v>23331</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="G61" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I61" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -9574,19 +10306,111 @@
         <v>69</v>
       </c>
       <c r="E62">
+        <v>11481</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" t="s">
+        <v>140</v>
+      </c>
+      <c r="H62" t="s">
+        <v>197</v>
+      </c>
+      <c r="I62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63">
+        <v>26164</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G63" t="s">
+        <v>140</v>
+      </c>
+      <c r="H63" t="s">
+        <v>198</v>
+      </c>
+      <c r="I63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64">
+        <v>8963</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G64" t="s">
+        <v>140</v>
+      </c>
+      <c r="H64" t="s">
+        <v>199</v>
+      </c>
+      <c r="I64" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65">
+        <v>17975</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G65" t="s">
+        <v>140</v>
+      </c>
+      <c r="H65" t="s">
+        <v>200</v>
+      </c>
+      <c r="I65" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66">
         <v>6666</v>
       </c>
-      <c r="F62" t="s">
-        <v>130</v>
-      </c>
-      <c r="G62" t="s">
-        <v>131</v>
-      </c>
-      <c r="H62" t="s">
-        <v>192</v>
-      </c>
-      <c r="I62" t="s">
-        <v>237</v>
+      <c r="F66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G66" t="s">
+        <v>140</v>
+      </c>
+      <c r="H66" t="s">
+        <v>201</v>
+      </c>
+      <c r="I66" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
